--- a/Example input/AgmipET2/AGMIPET2Sim.xlsx
+++ b/Example input/AgmipET2/AGMIPET2Sim.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DADB0F-1894-4706-AF22-7A65514188B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8004F0-16F2-44C2-9DD5-44A5D257595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20232" yWindow="1404" windowWidth="17856" windowHeight="9912" tabRatio="848" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4356" yWindow="2940" windowWidth="17856" windowHeight="9912" tabRatio="848" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Variety" sheetId="10" r:id="rId14"/>
     <sheet name="Weather" sheetId="7" r:id="rId15"/>
     <sheet name="MulchDecomp" sheetId="19" r:id="rId16"/>
+    <sheet name="MulchGeo" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="Description">Description!$A$1:$R$11</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -900,6 +901,48 @@
   <si>
     <t>LIGN Decomp</t>
   </si>
+  <si>
+    <t>Min_Hori_Size</t>
+  </si>
+  <si>
+    <t>Diffusion_Restriction</t>
+  </si>
+  <si>
+    <t>LongWaveRadiationCtrl</t>
+  </si>
+  <si>
+    <t>Decomposition_ctrl</t>
+  </si>
+  <si>
+    <t>DeltaRshort</t>
+  </si>
+  <si>
+    <t>DeltaRlong</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>epsilon_mulch</t>
+  </si>
+  <si>
+    <t>alpha_mulch</t>
+  </si>
+  <si>
+    <t>MaxStep in Picard Iteration</t>
+  </si>
+  <si>
+    <t>Tolerance_head</t>
+  </si>
+  <si>
+    <t>rho_mulch</t>
+  </si>
+  <si>
+    <t>pore_space</t>
+  </si>
+  <si>
+    <t>MaxPondingDepth</t>
+  </si>
 </sst>
 </file>
 
@@ -29903,9 +29946,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C87A0-8875-45CB-B134-6AC3431B7460}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -30000,6 +30044,116 @@
       </c>
       <c r="L2" s="21">
         <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC333C73-500D-4383-8BD8-038545C47371}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="M2">
+        <v>400000</v>
+      </c>
+      <c r="N2">
+        <v>0.8</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Example input/AgmipET2/AGMIPET2Sim.xlsx
+++ b/Example input/AgmipET2/AGMIPET2Sim.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8004F0-16F2-44C2-9DD5-44A5D257595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28910ADE-B8D7-42D8-B250-0B72A6AFA6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="2940" windowWidth="17856" windowHeight="9912" tabRatio="848" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20232" yWindow="2184" windowWidth="17280" windowHeight="9072" tabRatio="848" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -13,27 +13,26 @@
     <sheet name="Climate" sheetId="8" r:id="rId3"/>
     <sheet name="Fertilization" sheetId="1" r:id="rId4"/>
     <sheet name="GridRatio" sheetId="11" r:id="rId5"/>
-    <sheet name="GridX_old" sheetId="12" r:id="rId6"/>
-    <sheet name="Irrig" sheetId="3" r:id="rId7"/>
-    <sheet name="Drip" sheetId="17" r:id="rId8"/>
-    <sheet name="DripNodes" sheetId="18" r:id="rId9"/>
-    <sheet name="Init" sheetId="2" r:id="rId10"/>
-    <sheet name="Soil" sheetId="6" r:id="rId11"/>
-    <sheet name="Solute" sheetId="15" r:id="rId12"/>
-    <sheet name="Time" sheetId="4" r:id="rId13"/>
-    <sheet name="Variety" sheetId="10" r:id="rId14"/>
-    <sheet name="Weather" sheetId="7" r:id="rId15"/>
-    <sheet name="MulchDecomp" sheetId="19" r:id="rId16"/>
-    <sheet name="MulchGeo" sheetId="20" r:id="rId17"/>
+    <sheet name="Irrig" sheetId="3" r:id="rId6"/>
+    <sheet name="Drip" sheetId="17" r:id="rId7"/>
+    <sheet name="DripNodes" sheetId="18" r:id="rId8"/>
+    <sheet name="Init" sheetId="2" r:id="rId9"/>
+    <sheet name="Soil" sheetId="6" r:id="rId10"/>
+    <sheet name="Solute" sheetId="15" r:id="rId11"/>
+    <sheet name="Time" sheetId="4" r:id="rId12"/>
+    <sheet name="Variety" sheetId="10" r:id="rId13"/>
+    <sheet name="Weather" sheetId="7" r:id="rId14"/>
+    <sheet name="MulchDecomp" sheetId="19" r:id="rId15"/>
+    <sheet name="MulchGeo" sheetId="20" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Description">Description!$A$1:$R$11</definedName>
     <definedName name="Fertilization">Fertilization!$A$1:$F$49</definedName>
     <definedName name="GridRatio">GridRatio!$A$1:$H$21</definedName>
-    <definedName name="GridX">GridX_old!$A$1:$B$261</definedName>
+    <definedName name="GridX">#REF!</definedName>
     <definedName name="Init">Init!$A$1:$R$21</definedName>
     <definedName name="Irrig">Irrig!$A$1:$C$212</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="14" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="Soil">Soil!$A$1:$AK$213</definedName>
     <definedName name="Time">Time!$A$1:$K$21</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="299">
   <si>
     <t>Date</t>
   </si>
@@ -758,9 +757,6 @@
     <t>MeadRF_run_12.soi</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Agmip2.wea</t>
   </si>
   <si>
@@ -942,6 +938,18 @@
   </si>
   <si>
     <t>MaxPondingDepth</t>
+  </si>
+  <si>
+    <t>date_residue</t>
+  </si>
+  <si>
+    <t>type(t or m)</t>
+  </si>
+  <si>
+    <t>rate (t/ha or  cm)</t>
+  </si>
+  <si>
+    <t>Vertical Layers</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1456,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -1483,7 +1491,7 @@
         <v>105</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>8</v>
@@ -1513,10 +1521,10 @@
         <v>112</v>
       </c>
       <c r="O1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" t="s">
         <v>267</v>
-      </c>
-      <c r="P1" t="s">
-        <v>268</v>
       </c>
       <c r="R1" t="s">
         <v>184</v>
@@ -1536,7 +1544,7 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -1553,10 +1561,10 @@
         <v>MeadIr_run_01.soi</v>
       </c>
       <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
         <v>235</v>
-      </c>
-      <c r="H2" t="s">
-        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>196</v>
@@ -1578,13 +1586,13 @@
         <v>91</v>
       </c>
       <c r="O2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P2" t="s">
         <v>269</v>
       </c>
-      <c r="P2" t="s">
-        <v>270</v>
-      </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S2" t="s">
         <v>188</v>
@@ -1601,7 +1609,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>199</v>
@@ -1618,10 +1626,10 @@
         <v>MeadIr_run_02.soi</v>
       </c>
       <c r="G3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" t="s">
         <v>235</v>
-      </c>
-      <c r="H3" t="s">
-        <v>236</v>
       </c>
       <c r="I3" t="s">
         <v>196</v>
@@ -1643,13 +1651,13 @@
         <v>91</v>
       </c>
       <c r="O3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P3" t="s">
         <v>269</v>
       </c>
-      <c r="P3" t="s">
-        <v>270</v>
-      </c>
       <c r="R3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S3" t="s">
         <v>188</v>
@@ -1666,7 +1674,7 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
         <v>200</v>
@@ -1683,10 +1691,10 @@
         <v>MeadIr_run_03.soi</v>
       </c>
       <c r="G4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" t="s">
         <v>235</v>
-      </c>
-      <c r="H4" t="s">
-        <v>236</v>
       </c>
       <c r="I4" t="s">
         <v>196</v>
@@ -1708,13 +1716,13 @@
         <v>91</v>
       </c>
       <c r="O4" t="s">
+        <v>268</v>
+      </c>
+      <c r="P4" t="s">
         <v>269</v>
       </c>
-      <c r="P4" t="s">
-        <v>270</v>
-      </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S4" t="s">
         <v>188</v>
@@ -1731,7 +1739,7 @@
         <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -1748,10 +1756,10 @@
         <v>MeadIr_run_04.soi</v>
       </c>
       <c r="G5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" t="s">
         <v>235</v>
-      </c>
-      <c r="H5" t="s">
-        <v>236</v>
       </c>
       <c r="I5" t="s">
         <v>196</v>
@@ -1773,13 +1781,13 @@
         <v>91</v>
       </c>
       <c r="O5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" t="s">
         <v>269</v>
       </c>
-      <c r="P5" t="s">
-        <v>270</v>
-      </c>
       <c r="R5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S5" t="s">
         <v>188</v>
@@ -1796,7 +1804,7 @@
         <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -1813,10 +1821,10 @@
         <v>MeadIr_run_05.soi</v>
       </c>
       <c r="G6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" t="s">
         <v>235</v>
-      </c>
-      <c r="H6" t="s">
-        <v>236</v>
       </c>
       <c r="I6" t="s">
         <v>196</v>
@@ -1838,13 +1846,13 @@
         <v>91</v>
       </c>
       <c r="O6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P6" t="s">
         <v>269</v>
       </c>
-      <c r="P6" t="s">
-        <v>270</v>
-      </c>
       <c r="R6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S6" t="s">
         <v>188</v>
@@ -1861,7 +1869,7 @@
         <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -1878,10 +1886,10 @@
         <v>MeadIr_run_06.soi</v>
       </c>
       <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
         <v>235</v>
-      </c>
-      <c r="H7" t="s">
-        <v>236</v>
       </c>
       <c r="I7" t="s">
         <v>196</v>
@@ -1903,13 +1911,13 @@
         <v>91</v>
       </c>
       <c r="O7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" t="s">
         <v>269</v>
       </c>
-      <c r="P7" t="s">
-        <v>270</v>
-      </c>
       <c r="R7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S7" t="s">
         <v>188</v>
@@ -1926,7 +1934,7 @@
         <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>198</v>
@@ -1943,10 +1951,10 @@
         <v>MeadRF_run_07.soi</v>
       </c>
       <c r="G8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" t="s">
         <v>235</v>
-      </c>
-      <c r="H8" t="s">
-        <v>236</v>
       </c>
       <c r="I8" t="s">
         <v>196</v>
@@ -1968,13 +1976,13 @@
         <v>91</v>
       </c>
       <c r="O8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P8" t="s">
         <v>269</v>
       </c>
-      <c r="P8" t="s">
-        <v>270</v>
-      </c>
       <c r="R8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S8" t="s">
         <v>189</v>
@@ -1991,7 +1999,7 @@
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -2008,10 +2016,10 @@
         <v>MeadRF_run_08.soi</v>
       </c>
       <c r="G9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" t="s">
         <v>235</v>
-      </c>
-      <c r="H9" t="s">
-        <v>236</v>
       </c>
       <c r="I9" t="s">
         <v>196</v>
@@ -2033,13 +2041,13 @@
         <v>91</v>
       </c>
       <c r="O9" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" t="s">
         <v>269</v>
       </c>
-      <c r="P9" t="s">
-        <v>270</v>
-      </c>
       <c r="R9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S9" t="s">
         <v>189</v>
@@ -2056,7 +2064,7 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>200</v>
@@ -2073,10 +2081,10 @@
         <v>MeadRF_run_09.soi</v>
       </c>
       <c r="G10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" t="s">
         <v>235</v>
-      </c>
-      <c r="H10" t="s">
-        <v>236</v>
       </c>
       <c r="I10" t="s">
         <v>196</v>
@@ -2098,13 +2106,13 @@
         <v>91</v>
       </c>
       <c r="O10" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" t="s">
         <v>269</v>
       </c>
-      <c r="P10" t="s">
-        <v>270</v>
-      </c>
       <c r="R10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S10" t="s">
         <v>189</v>
@@ -2121,7 +2129,7 @@
         <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>201</v>
@@ -2138,10 +2146,10 @@
         <v>MeadRF_run_10.soi</v>
       </c>
       <c r="G11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" t="s">
         <v>235</v>
-      </c>
-      <c r="H11" t="s">
-        <v>236</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
@@ -2163,13 +2171,13 @@
         <v>91</v>
       </c>
       <c r="O11" t="s">
+        <v>268</v>
+      </c>
+      <c r="P11" t="s">
         <v>269</v>
       </c>
-      <c r="P11" t="s">
-        <v>270</v>
-      </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S11" t="s">
         <v>189</v>
@@ -2186,7 +2194,7 @@
         <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>202</v>
@@ -2203,10 +2211,10 @@
         <v>MeadRF_run_11.soi</v>
       </c>
       <c r="G12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" t="s">
         <v>235</v>
-      </c>
-      <c r="H12" t="s">
-        <v>236</v>
       </c>
       <c r="I12" t="s">
         <v>196</v>
@@ -2228,13 +2236,13 @@
         <v>91</v>
       </c>
       <c r="O12" t="s">
+        <v>266</v>
+      </c>
+      <c r="P12" t="s">
         <v>267</v>
       </c>
-      <c r="P12" t="s">
-        <v>268</v>
-      </c>
       <c r="R12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S12" t="s">
         <v>189</v>
@@ -2251,7 +2259,7 @@
         <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
         <v>203</v>
@@ -2268,10 +2276,10 @@
         <v>MeadRF_run_12.soi</v>
       </c>
       <c r="G13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" t="s">
         <v>235</v>
-      </c>
-      <c r="H13" t="s">
-        <v>236</v>
       </c>
       <c r="I13" t="s">
         <v>196</v>
@@ -2293,13 +2301,13 @@
         <v>91</v>
       </c>
       <c r="O13" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" t="s">
         <v>269</v>
       </c>
-      <c r="P13" t="s">
-        <v>270</v>
-      </c>
       <c r="R13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S13" t="s">
         <v>189</v>
@@ -2316,7 +2324,7 @@
         <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>204</v>
@@ -2333,10 +2341,10 @@
         <v>BushLD_run_13.soi</v>
       </c>
       <c r="G14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" t="s">
         <v>235</v>
-      </c>
-      <c r="H14" t="s">
-        <v>236</v>
       </c>
       <c r="I14" t="s">
         <v>197</v>
@@ -2358,10 +2366,10 @@
         <v>91</v>
       </c>
       <c r="O14" t="s">
+        <v>268</v>
+      </c>
+      <c r="P14" t="s">
         <v>269</v>
-      </c>
-      <c r="P14" t="s">
-        <v>270</v>
       </c>
       <c r="R14" t="s">
         <v>176</v>
@@ -2382,7 +2390,7 @@
         <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>204</v>
@@ -2399,10 +2407,10 @@
         <v>BushLD_run_14.soi</v>
       </c>
       <c r="G15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" t="s">
         <v>235</v>
-      </c>
-      <c r="H15" t="s">
-        <v>236</v>
       </c>
       <c r="I15" t="s">
         <v>197</v>
@@ -2424,10 +2432,10 @@
         <v>91</v>
       </c>
       <c r="O15" t="s">
+        <v>268</v>
+      </c>
+      <c r="P15" t="s">
         <v>269</v>
-      </c>
-      <c r="P15" t="s">
-        <v>270</v>
       </c>
       <c r="R15" t="s">
         <v>177</v>
@@ -2448,7 +2456,7 @@
         <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>204</v>
@@ -2465,10 +2473,10 @@
         <v>BushLD_run_15.soi</v>
       </c>
       <c r="G16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" t="s">
         <v>235</v>
-      </c>
-      <c r="H16" t="s">
-        <v>236</v>
       </c>
       <c r="I16" t="s">
         <v>197</v>
@@ -2490,10 +2498,10 @@
         <v>91</v>
       </c>
       <c r="O16" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" t="s">
         <v>269</v>
-      </c>
-      <c r="P16" t="s">
-        <v>270</v>
       </c>
       <c r="R16" t="s">
         <v>178</v>
@@ -2514,7 +2522,7 @@
         <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>204</v>
@@ -2531,10 +2539,10 @@
         <v>BushLD_run_16.soi</v>
       </c>
       <c r="G17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" t="s">
         <v>235</v>
-      </c>
-      <c r="H17" t="s">
-        <v>236</v>
       </c>
       <c r="I17" t="s">
         <v>197</v>
@@ -2556,10 +2564,10 @@
         <v>91</v>
       </c>
       <c r="O17" t="s">
+        <v>268</v>
+      </c>
+      <c r="P17" t="s">
         <v>269</v>
-      </c>
-      <c r="P17" t="s">
-        <v>270</v>
       </c>
       <c r="R17" t="s">
         <v>179</v>
@@ -2580,7 +2588,7 @@
         <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -2597,10 +2605,10 @@
         <v>BushLD_run_17.soi</v>
       </c>
       <c r="G18" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" t="s">
         <v>235</v>
-      </c>
-      <c r="H18" t="s">
-        <v>236</v>
       </c>
       <c r="I18" t="s">
         <v>197</v>
@@ -2622,10 +2630,10 @@
         <v>91</v>
       </c>
       <c r="O18" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" t="s">
         <v>269</v>
-      </c>
-      <c r="P18" t="s">
-        <v>270</v>
       </c>
       <c r="R18" t="s">
         <v>180</v>
@@ -2646,7 +2654,7 @@
         <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
         <v>204</v>
@@ -2663,10 +2671,10 @@
         <v>BushLD_run_18.soi</v>
       </c>
       <c r="G19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" t="s">
         <v>235</v>
-      </c>
-      <c r="H19" t="s">
-        <v>236</v>
       </c>
       <c r="I19" t="s">
         <v>197</v>
@@ -2688,10 +2696,10 @@
         <v>91</v>
       </c>
       <c r="O19" t="s">
+        <v>268</v>
+      </c>
+      <c r="P19" t="s">
         <v>269</v>
-      </c>
-      <c r="P19" t="s">
-        <v>270</v>
       </c>
       <c r="R19" t="s">
         <v>181</v>
@@ -2712,7 +2720,7 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s">
         <v>204</v>
@@ -2729,10 +2737,10 @@
         <v>BushLD_run_19.soi</v>
       </c>
       <c r="G20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" t="s">
         <v>235</v>
-      </c>
-      <c r="H20" t="s">
-        <v>236</v>
       </c>
       <c r="I20" t="s">
         <v>197</v>
@@ -2754,10 +2762,10 @@
         <v>91</v>
       </c>
       <c r="O20" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" t="s">
         <v>269</v>
-      </c>
-      <c r="P20" t="s">
-        <v>270</v>
       </c>
       <c r="R20" t="s">
         <v>182</v>
@@ -2778,7 +2786,7 @@
         <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -2795,10 +2803,10 @@
         <v>BushLD_run_20.soi</v>
       </c>
       <c r="G21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" t="s">
         <v>235</v>
-      </c>
-      <c r="H21" t="s">
-        <v>236</v>
       </c>
       <c r="I21" t="s">
         <v>197</v>
@@ -2820,10 +2828,10 @@
         <v>91</v>
       </c>
       <c r="O21" t="s">
+        <v>268</v>
+      </c>
+      <c r="P21" t="s">
         <v>269</v>
-      </c>
-      <c r="P21" t="s">
-        <v>270</v>
       </c>
       <c r="R21" t="s">
         <v>183</v>
@@ -2847,1214 +2855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R21"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="5" width="13" customWidth="1"/>
-    <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14" style="12" customWidth="1"/>
-    <col min="11" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2">
-        <v>78000</v>
-      </c>
-      <c r="C2">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D2">
-        <v>-96.47</v>
-      </c>
-      <c r="E2">
-        <v>362</v>
-      </c>
-      <c r="F2" s="10">
-        <v>37745</v>
-      </c>
-      <c r="G2" s="10">
-        <v>37755</v>
-      </c>
-      <c r="H2" s="10">
-        <v>37936</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0.5</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3">
-        <v>76000</v>
-      </c>
-      <c r="C3">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D3">
-        <v>-96.47</v>
-      </c>
-      <c r="E3">
-        <v>362</v>
-      </c>
-      <c r="F3" s="10">
-        <v>38464</v>
-      </c>
-      <c r="G3" s="10">
-        <v>38474</v>
-      </c>
-      <c r="H3" s="10">
-        <v>38667</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>0.6</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4">
-        <v>77600</v>
-      </c>
-      <c r="C4">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D4">
-        <v>-96.47</v>
-      </c>
-      <c r="E4">
-        <v>362</v>
-      </c>
-      <c r="F4" s="10">
-        <v>39193</v>
-      </c>
-      <c r="G4" s="10">
-        <v>39203</v>
-      </c>
-      <c r="H4" s="10">
-        <v>39397</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>0.6</v>
-      </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5">
-        <v>76500</v>
-      </c>
-      <c r="C5">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D5">
-        <v>-96.47</v>
-      </c>
-      <c r="E5">
-        <v>362</v>
-      </c>
-      <c r="F5" s="10">
-        <v>39914</v>
-      </c>
-      <c r="G5" s="10">
-        <v>39924</v>
-      </c>
-      <c r="H5" s="10">
-        <v>40128</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>0.6</v>
-      </c>
-      <c r="O5">
-        <v>0.5</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6">
-        <v>81100</v>
-      </c>
-      <c r="C6">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D6">
-        <v>-96.47</v>
-      </c>
-      <c r="E6">
-        <v>362</v>
-      </c>
-      <c r="F6" s="10">
-        <v>40670</v>
-      </c>
-      <c r="G6" s="10">
-        <v>40680</v>
-      </c>
-      <c r="H6" s="10">
-        <v>40858</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>0.6</v>
-      </c>
-      <c r="O6">
-        <v>0.5</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7">
-        <v>78900</v>
-      </c>
-      <c r="C7">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D7">
-        <v>-96.47</v>
-      </c>
-      <c r="E7">
-        <v>362</v>
-      </c>
-      <c r="F7" s="10">
-        <v>41384</v>
-      </c>
-      <c r="G7" s="10">
-        <v>41394</v>
-      </c>
-      <c r="H7" s="10">
-        <v>41589</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>0.6</v>
-      </c>
-      <c r="O7">
-        <v>0.5</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8">
-        <v>58000</v>
-      </c>
-      <c r="C8">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D8">
-        <v>-96.47</v>
-      </c>
-      <c r="E8">
-        <v>362</v>
-      </c>
-      <c r="F8" s="10">
-        <v>37744</v>
-      </c>
-      <c r="G8" s="10">
-        <v>37754</v>
-      </c>
-      <c r="H8" s="10">
-        <v>37936</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>0.6</v>
-      </c>
-      <c r="O8">
-        <v>0.5</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9">
-        <v>54000</v>
-      </c>
-      <c r="C9">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D9">
-        <v>-96.47</v>
-      </c>
-      <c r="E9">
-        <v>362</v>
-      </c>
-      <c r="F9" s="10">
-        <v>38458</v>
-      </c>
-      <c r="G9" s="10">
-        <v>38468</v>
-      </c>
-      <c r="H9" s="10">
-        <v>38667</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>0.6</v>
-      </c>
-      <c r="O9">
-        <v>0.5</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10">
-        <v>56000</v>
-      </c>
-      <c r="C10">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D10">
-        <v>-96.47</v>
-      </c>
-      <c r="E10">
-        <v>362</v>
-      </c>
-      <c r="F10" s="10">
-        <v>39194</v>
-      </c>
-      <c r="G10" s="10">
-        <v>39204</v>
-      </c>
-      <c r="H10" s="10">
-        <v>39397</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>0.6</v>
-      </c>
-      <c r="O10">
-        <v>0.5</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11">
-        <v>61000</v>
-      </c>
-      <c r="C11">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D11">
-        <v>-96.47</v>
-      </c>
-      <c r="E11">
-        <v>362</v>
-      </c>
-      <c r="F11" s="10">
-        <v>39915</v>
-      </c>
-      <c r="G11" s="10">
-        <v>39925</v>
-      </c>
-      <c r="H11" s="10">
-        <v>40128</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>0.6</v>
-      </c>
-      <c r="O11">
-        <v>0.5</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12">
-        <v>50000</v>
-      </c>
-      <c r="C12">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D12">
-        <v>-96.47</v>
-      </c>
-      <c r="E12">
-        <v>362</v>
-      </c>
-      <c r="F12" s="10">
-        <v>40655</v>
-      </c>
-      <c r="G12" s="10">
-        <v>40665</v>
-      </c>
-      <c r="H12" s="10">
-        <v>40858</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>0.6</v>
-      </c>
-      <c r="O12">
-        <v>0.5</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13">
-        <v>58000</v>
-      </c>
-      <c r="C13">
-        <v>41.164999999999999</v>
-      </c>
-      <c r="D13">
-        <v>-96.47</v>
-      </c>
-      <c r="E13">
-        <v>362</v>
-      </c>
-      <c r="F13" s="10">
-        <v>41397</v>
-      </c>
-      <c r="G13" s="10">
-        <v>41407</v>
-      </c>
-      <c r="H13" s="10">
-        <v>41589</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>0.6</v>
-      </c>
-      <c r="O13">
-        <v>0.5</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14">
-        <v>81500</v>
-      </c>
-      <c r="C14">
-        <v>35.19</v>
-      </c>
-      <c r="D14">
-        <v>-102.01</v>
-      </c>
-      <c r="E14">
-        <v>1170</v>
-      </c>
-      <c r="F14" s="10">
-        <v>41400</v>
-      </c>
-      <c r="G14" s="10">
-        <v>41410</v>
-      </c>
-      <c r="H14" s="10">
-        <v>41589</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>0.6</v>
-      </c>
-      <c r="O14">
-        <v>0.5</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15">
-        <v>87500</v>
-      </c>
-      <c r="C15">
-        <v>35.19</v>
-      </c>
-      <c r="D15">
-        <v>-102.01</v>
-      </c>
-      <c r="E15">
-        <v>1170</v>
-      </c>
-      <c r="F15" s="10">
-        <v>42491</v>
-      </c>
-      <c r="G15" s="10">
-        <v>42501</v>
-      </c>
-      <c r="H15" s="10">
-        <v>42685</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>0.6</v>
-      </c>
-      <c r="O15">
-        <v>0.5</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16">
-        <v>81500</v>
-      </c>
-      <c r="C16">
-        <v>35.19</v>
-      </c>
-      <c r="D16">
-        <v>-102.01</v>
-      </c>
-      <c r="E16">
-        <v>1170</v>
-      </c>
-      <c r="F16" s="10">
-        <v>41400</v>
-      </c>
-      <c r="G16" s="10">
-        <v>41410</v>
-      </c>
-      <c r="H16" s="10">
-        <v>41589</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>0.6</v>
-      </c>
-      <c r="O16">
-        <v>0.5</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17">
-        <v>87500</v>
-      </c>
-      <c r="C17">
-        <v>35.19</v>
-      </c>
-      <c r="D17">
-        <v>-102.01</v>
-      </c>
-      <c r="E17">
-        <v>1170</v>
-      </c>
-      <c r="F17" s="10">
-        <v>42491</v>
-      </c>
-      <c r="G17" s="10">
-        <v>42501</v>
-      </c>
-      <c r="H17" s="10">
-        <v>42685</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>0.6</v>
-      </c>
-      <c r="O17">
-        <v>0.5</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18">
-        <v>81500</v>
-      </c>
-      <c r="C18">
-        <v>35.19</v>
-      </c>
-      <c r="D18">
-        <v>-102.01</v>
-      </c>
-      <c r="E18">
-        <v>1170</v>
-      </c>
-      <c r="F18" s="10">
-        <v>41400</v>
-      </c>
-      <c r="G18" s="10">
-        <v>41416</v>
-      </c>
-      <c r="H18" s="10">
-        <v>41589</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>0.6</v>
-      </c>
-      <c r="O18">
-        <v>0.5</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19">
-        <v>87500</v>
-      </c>
-      <c r="C19">
-        <v>35.19</v>
-      </c>
-      <c r="D19">
-        <v>-102.01</v>
-      </c>
-      <c r="E19">
-        <v>1170</v>
-      </c>
-      <c r="F19" s="10">
-        <v>42491</v>
-      </c>
-      <c r="G19" s="10">
-        <v>42501</v>
-      </c>
-      <c r="H19" s="10">
-        <v>42685</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>0.6</v>
-      </c>
-      <c r="O19">
-        <v>0.5</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20">
-        <v>81500</v>
-      </c>
-      <c r="C20">
-        <v>35.19</v>
-      </c>
-      <c r="D20">
-        <v>-102.01</v>
-      </c>
-      <c r="E20">
-        <v>1170</v>
-      </c>
-      <c r="F20" s="10">
-        <v>41400</v>
-      </c>
-      <c r="G20" s="10">
-        <v>41416</v>
-      </c>
-      <c r="H20" s="10">
-        <v>41589</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>0.6</v>
-      </c>
-      <c r="O20">
-        <v>0.5</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21">
-        <v>87500</v>
-      </c>
-      <c r="C21">
-        <v>35.19</v>
-      </c>
-      <c r="D21">
-        <v>-102.01</v>
-      </c>
-      <c r="E21">
-        <v>1170</v>
-      </c>
-      <c r="F21" s="10">
-        <v>42491</v>
-      </c>
-      <c r="G21" s="10">
-        <v>42501</v>
-      </c>
-      <c r="H21" s="10">
-        <v>42685</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <v>0.6</v>
-      </c>
-      <c r="O21">
-        <v>0.5</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AK213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -4068,13 +2873,13 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
         <v>137</v>
@@ -28141,7 +26946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E2"/>
@@ -28195,7 +27000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K21"/>
@@ -28953,7 +27758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD9"/>
@@ -29798,7 +28603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E7"/>
@@ -29821,7 +28626,7 @@
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>135</v>
@@ -29838,13 +28643,13 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>152</v>
@@ -29855,13 +28660,13 @@
         <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
         <v>152</v>
@@ -29872,13 +28677,13 @@
         <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
         <v>152</v>
@@ -29889,13 +28694,13 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
         <v>152</v>
@@ -29906,13 +28711,13 @@
         <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
         <v>152</v>
@@ -29923,13 +28728,13 @@
         <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
         <v>152</v>
@@ -29944,7 +28749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C87A0-8875-45CB-B134-6AC3431B7460}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L2"/>
@@ -29975,42 +28780,42 @@
         <v>7</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>280</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="21">
         <v>0.6</v>
@@ -30051,12 +28856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC333C73-500D-4383-8BD8-038545C47371}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -30067,51 +28872,51 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" t="s">
         <v>282</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>283</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>284</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>294</v>
-      </c>
-      <c r="O1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -30273,7 +29078,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -30497,10 +29302,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30510,7 +29315,7 @@
     <col min="3" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30521,7 +29326,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
         <v>133</v>
@@ -30529,8 +29334,20 @@
       <c r="F1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -30550,7 +29367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -30570,7 +29387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -30590,7 +29407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -30610,7 +29427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -30630,7 +29447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -30650,7 +29467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -30670,7 +29487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -30690,7 +29507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -30710,7 +29527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -30730,7 +29547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -30750,7 +29567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -30770,7 +29587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -30790,7 +29607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -30810,7 +29627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -31539,7 +30356,7 @@
         <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -32129,2115 +30946,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B261"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B53">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>218</v>
-      </c>
-      <c r="B61">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>218</v>
-      </c>
-      <c r="B64">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>219</v>
-      </c>
-      <c r="B72">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>219</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>219</v>
-      </c>
-      <c r="B74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B76">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>219</v>
-      </c>
-      <c r="B77">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>220</v>
-      </c>
-      <c r="B83">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>220</v>
-      </c>
-      <c r="B87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>220</v>
-      </c>
-      <c r="B88">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>220</v>
-      </c>
-      <c r="B92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>221</v>
-      </c>
-      <c r="B96">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>221</v>
-      </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>221</v>
-      </c>
-      <c r="B98">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>221</v>
-      </c>
-      <c r="B99">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>221</v>
-      </c>
-      <c r="B102">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>221</v>
-      </c>
-      <c r="B103">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>221</v>
-      </c>
-      <c r="B104">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>222</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>222</v>
-      </c>
-      <c r="B111">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>222</v>
-      </c>
-      <c r="B116">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>222</v>
-      </c>
-      <c r="B117">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>222</v>
-      </c>
-      <c r="B118">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>223</v>
-      </c>
-      <c r="B119">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>223</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>223</v>
-      </c>
-      <c r="B123">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>223</v>
-      </c>
-      <c r="B125">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>223</v>
-      </c>
-      <c r="B126">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>223</v>
-      </c>
-      <c r="B127">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>223</v>
-      </c>
-      <c r="B130">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>223</v>
-      </c>
-      <c r="B131">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>224</v>
-      </c>
-      <c r="B132">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>224</v>
-      </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>224</v>
-      </c>
-      <c r="B134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>224</v>
-      </c>
-      <c r="B135">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>224</v>
-      </c>
-      <c r="B136">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>224</v>
-      </c>
-      <c r="B137">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>224</v>
-      </c>
-      <c r="B138">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>224</v>
-      </c>
-      <c r="B140">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>224</v>
-      </c>
-      <c r="B141">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>224</v>
-      </c>
-      <c r="B142">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>224</v>
-      </c>
-      <c r="B143">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>225</v>
-      </c>
-      <c r="B145">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>225</v>
-      </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>225</v>
-      </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>225</v>
-      </c>
-      <c r="B148">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>225</v>
-      </c>
-      <c r="B149">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>225</v>
-      </c>
-      <c r="B150">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>225</v>
-      </c>
-      <c r="B151">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>225</v>
-      </c>
-      <c r="B152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>225</v>
-      </c>
-      <c r="B153">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>225</v>
-      </c>
-      <c r="B154">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>225</v>
-      </c>
-      <c r="B155">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>225</v>
-      </c>
-      <c r="B156">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>225</v>
-      </c>
-      <c r="B157">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>226</v>
-      </c>
-      <c r="B158">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>226</v>
-      </c>
-      <c r="B159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>226</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>226</v>
-      </c>
-      <c r="B161">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>226</v>
-      </c>
-      <c r="B162">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>226</v>
-      </c>
-      <c r="B163">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>226</v>
-      </c>
-      <c r="B164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>226</v>
-      </c>
-      <c r="B165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>226</v>
-      </c>
-      <c r="B166">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>226</v>
-      </c>
-      <c r="B167">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>226</v>
-      </c>
-      <c r="B168">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>226</v>
-      </c>
-      <c r="B169">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>226</v>
-      </c>
-      <c r="B170">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>227</v>
-      </c>
-      <c r="B171">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>227</v>
-      </c>
-      <c r="B172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>227</v>
-      </c>
-      <c r="B173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>227</v>
-      </c>
-      <c r="B174">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>227</v>
-      </c>
-      <c r="B175">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>227</v>
-      </c>
-      <c r="B176">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>227</v>
-      </c>
-      <c r="B177">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>227</v>
-      </c>
-      <c r="B178">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>227</v>
-      </c>
-      <c r="B179">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>227</v>
-      </c>
-      <c r="B180">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>227</v>
-      </c>
-      <c r="B181">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>227</v>
-      </c>
-      <c r="B182">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>227</v>
-      </c>
-      <c r="B183">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>228</v>
-      </c>
-      <c r="B184">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>228</v>
-      </c>
-      <c r="B185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>228</v>
-      </c>
-      <c r="B186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>228</v>
-      </c>
-      <c r="B187">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>228</v>
-      </c>
-      <c r="B188">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>228</v>
-      </c>
-      <c r="B189">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>228</v>
-      </c>
-      <c r="B190">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>228</v>
-      </c>
-      <c r="B191">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>228</v>
-      </c>
-      <c r="B192">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>228</v>
-      </c>
-      <c r="B193">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>228</v>
-      </c>
-      <c r="B194">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>228</v>
-      </c>
-      <c r="B195">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>228</v>
-      </c>
-      <c r="B196">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>229</v>
-      </c>
-      <c r="B197">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>229</v>
-      </c>
-      <c r="B198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>229</v>
-      </c>
-      <c r="B199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>229</v>
-      </c>
-      <c r="B200">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>229</v>
-      </c>
-      <c r="B201">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>229</v>
-      </c>
-      <c r="B202">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>229</v>
-      </c>
-      <c r="B203">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>229</v>
-      </c>
-      <c r="B204">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>229</v>
-      </c>
-      <c r="B205">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>229</v>
-      </c>
-      <c r="B206">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>229</v>
-      </c>
-      <c r="B207">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>229</v>
-      </c>
-      <c r="B208">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>229</v>
-      </c>
-      <c r="B209">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>230</v>
-      </c>
-      <c r="B210">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>230</v>
-      </c>
-      <c r="B211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>230</v>
-      </c>
-      <c r="B212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>230</v>
-      </c>
-      <c r="B214">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>230</v>
-      </c>
-      <c r="B215">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>230</v>
-      </c>
-      <c r="B216">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>230</v>
-      </c>
-      <c r="B217">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>230</v>
-      </c>
-      <c r="B218">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>230</v>
-      </c>
-      <c r="B219">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>230</v>
-      </c>
-      <c r="B220">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>230</v>
-      </c>
-      <c r="B221">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>230</v>
-      </c>
-      <c r="B222">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>231</v>
-      </c>
-      <c r="B223">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>231</v>
-      </c>
-      <c r="B225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>231</v>
-      </c>
-      <c r="B227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>231</v>
-      </c>
-      <c r="B228">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>231</v>
-      </c>
-      <c r="B229">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>231</v>
-      </c>
-      <c r="B230">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>231</v>
-      </c>
-      <c r="B234">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>231</v>
-      </c>
-      <c r="B235">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>232</v>
-      </c>
-      <c r="B236">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>232</v>
-      </c>
-      <c r="B237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>232</v>
-      </c>
-      <c r="B238">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>232</v>
-      </c>
-      <c r="B239">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>232</v>
-      </c>
-      <c r="B240">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>232</v>
-      </c>
-      <c r="B241">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>232</v>
-      </c>
-      <c r="B242">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>232</v>
-      </c>
-      <c r="B243">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>232</v>
-      </c>
-      <c r="B244">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>232</v>
-      </c>
-      <c r="B245">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>232</v>
-      </c>
-      <c r="B246">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>232</v>
-      </c>
-      <c r="B247">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>232</v>
-      </c>
-      <c r="B248">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>233</v>
-      </c>
-      <c r="B249">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>233</v>
-      </c>
-      <c r="B250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>233</v>
-      </c>
-      <c r="B251">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>233</v>
-      </c>
-      <c r="B252">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>233</v>
-      </c>
-      <c r="B253">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>233</v>
-      </c>
-      <c r="B254">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>233</v>
-      </c>
-      <c r="B255">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>233</v>
-      </c>
-      <c r="B256">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>233</v>
-      </c>
-      <c r="B257">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>233</v>
-      </c>
-      <c r="B258">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>233</v>
-      </c>
-      <c r="B259">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>233</v>
-      </c>
-      <c r="B260">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>233</v>
-      </c>
-      <c r="B261">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C212"/>
@@ -34253,7 +30961,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>153</v>
@@ -36589,7 +33297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:I65"/>
@@ -36890,7 +33598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B1"/>
@@ -36912,4 +33620,1207 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="5" width="13" customWidth="1"/>
+    <col min="6" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14" style="12" customWidth="1"/>
+    <col min="11" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>78000</v>
+      </c>
+      <c r="C2">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D2">
+        <v>-96.47</v>
+      </c>
+      <c r="E2">
+        <v>362</v>
+      </c>
+      <c r="F2" s="10">
+        <v>37745</v>
+      </c>
+      <c r="G2" s="10">
+        <v>37755</v>
+      </c>
+      <c r="H2" s="10">
+        <v>37936</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>76000</v>
+      </c>
+      <c r="C3">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D3">
+        <v>-96.47</v>
+      </c>
+      <c r="E3">
+        <v>362</v>
+      </c>
+      <c r="F3" s="10">
+        <v>38464</v>
+      </c>
+      <c r="G3" s="10">
+        <v>38474</v>
+      </c>
+      <c r="H3" s="10">
+        <v>38667</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>0.6</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4">
+        <v>77600</v>
+      </c>
+      <c r="C4">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-96.47</v>
+      </c>
+      <c r="E4">
+        <v>362</v>
+      </c>
+      <c r="F4" s="10">
+        <v>39193</v>
+      </c>
+      <c r="G4" s="10">
+        <v>39203</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39397</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>76500</v>
+      </c>
+      <c r="C5">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D5">
+        <v>-96.47</v>
+      </c>
+      <c r="E5">
+        <v>362</v>
+      </c>
+      <c r="F5" s="10">
+        <v>39914</v>
+      </c>
+      <c r="G5" s="10">
+        <v>39924</v>
+      </c>
+      <c r="H5" s="10">
+        <v>40128</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0.6</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>81100</v>
+      </c>
+      <c r="C6">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D6">
+        <v>-96.47</v>
+      </c>
+      <c r="E6">
+        <v>362</v>
+      </c>
+      <c r="F6" s="10">
+        <v>40670</v>
+      </c>
+      <c r="G6" s="10">
+        <v>40680</v>
+      </c>
+      <c r="H6" s="10">
+        <v>40858</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0.6</v>
+      </c>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>78900</v>
+      </c>
+      <c r="C7">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D7">
+        <v>-96.47</v>
+      </c>
+      <c r="E7">
+        <v>362</v>
+      </c>
+      <c r="F7" s="10">
+        <v>41384</v>
+      </c>
+      <c r="G7" s="10">
+        <v>41394</v>
+      </c>
+      <c r="H7" s="10">
+        <v>41589</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>0.6</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8">
+        <v>58000</v>
+      </c>
+      <c r="C8">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-96.47</v>
+      </c>
+      <c r="E8">
+        <v>362</v>
+      </c>
+      <c r="F8" s="10">
+        <v>37744</v>
+      </c>
+      <c r="G8" s="10">
+        <v>37754</v>
+      </c>
+      <c r="H8" s="10">
+        <v>37936</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0.6</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9">
+        <v>54000</v>
+      </c>
+      <c r="C9">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-96.47</v>
+      </c>
+      <c r="E9">
+        <v>362</v>
+      </c>
+      <c r="F9" s="10">
+        <v>38458</v>
+      </c>
+      <c r="G9" s="10">
+        <v>38468</v>
+      </c>
+      <c r="H9" s="10">
+        <v>38667</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10">
+        <v>56000</v>
+      </c>
+      <c r="C10">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D10">
+        <v>-96.47</v>
+      </c>
+      <c r="E10">
+        <v>362</v>
+      </c>
+      <c r="F10" s="10">
+        <v>39194</v>
+      </c>
+      <c r="G10" s="10">
+        <v>39204</v>
+      </c>
+      <c r="H10" s="10">
+        <v>39397</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11">
+        <v>61000</v>
+      </c>
+      <c r="C11">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D11">
+        <v>-96.47</v>
+      </c>
+      <c r="E11">
+        <v>362</v>
+      </c>
+      <c r="F11" s="10">
+        <v>39915</v>
+      </c>
+      <c r="G11" s="10">
+        <v>39925</v>
+      </c>
+      <c r="H11" s="10">
+        <v>40128</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>0.6</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12">
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D12">
+        <v>-96.47</v>
+      </c>
+      <c r="E12">
+        <v>362</v>
+      </c>
+      <c r="F12" s="10">
+        <v>40655</v>
+      </c>
+      <c r="G12" s="10">
+        <v>40665</v>
+      </c>
+      <c r="H12" s="10">
+        <v>40858</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>0.6</v>
+      </c>
+      <c r="O12">
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>58000</v>
+      </c>
+      <c r="C13">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="D13">
+        <v>-96.47</v>
+      </c>
+      <c r="E13">
+        <v>362</v>
+      </c>
+      <c r="F13" s="10">
+        <v>41397</v>
+      </c>
+      <c r="G13" s="10">
+        <v>41407</v>
+      </c>
+      <c r="H13" s="10">
+        <v>41589</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>0.6</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14">
+        <v>81500</v>
+      </c>
+      <c r="C14">
+        <v>35.19</v>
+      </c>
+      <c r="D14">
+        <v>-102.01</v>
+      </c>
+      <c r="E14">
+        <v>1170</v>
+      </c>
+      <c r="F14" s="10">
+        <v>41400</v>
+      </c>
+      <c r="G14" s="10">
+        <v>41410</v>
+      </c>
+      <c r="H14" s="10">
+        <v>41589</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0.6</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15">
+        <v>87500</v>
+      </c>
+      <c r="C15">
+        <v>35.19</v>
+      </c>
+      <c r="D15">
+        <v>-102.01</v>
+      </c>
+      <c r="E15">
+        <v>1170</v>
+      </c>
+      <c r="F15" s="10">
+        <v>42491</v>
+      </c>
+      <c r="G15" s="10">
+        <v>42501</v>
+      </c>
+      <c r="H15" s="10">
+        <v>42685</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0.6</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16">
+        <v>81500</v>
+      </c>
+      <c r="C16">
+        <v>35.19</v>
+      </c>
+      <c r="D16">
+        <v>-102.01</v>
+      </c>
+      <c r="E16">
+        <v>1170</v>
+      </c>
+      <c r="F16" s="10">
+        <v>41400</v>
+      </c>
+      <c r="G16" s="10">
+        <v>41410</v>
+      </c>
+      <c r="H16" s="10">
+        <v>41589</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>0.6</v>
+      </c>
+      <c r="O16">
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17">
+        <v>87500</v>
+      </c>
+      <c r="C17">
+        <v>35.19</v>
+      </c>
+      <c r="D17">
+        <v>-102.01</v>
+      </c>
+      <c r="E17">
+        <v>1170</v>
+      </c>
+      <c r="F17" s="10">
+        <v>42491</v>
+      </c>
+      <c r="G17" s="10">
+        <v>42501</v>
+      </c>
+      <c r="H17" s="10">
+        <v>42685</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>0.6</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18">
+        <v>81500</v>
+      </c>
+      <c r="C18">
+        <v>35.19</v>
+      </c>
+      <c r="D18">
+        <v>-102.01</v>
+      </c>
+      <c r="E18">
+        <v>1170</v>
+      </c>
+      <c r="F18" s="10">
+        <v>41400</v>
+      </c>
+      <c r="G18" s="10">
+        <v>41416</v>
+      </c>
+      <c r="H18" s="10">
+        <v>41589</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>0.6</v>
+      </c>
+      <c r="O18">
+        <v>0.5</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19">
+        <v>87500</v>
+      </c>
+      <c r="C19">
+        <v>35.19</v>
+      </c>
+      <c r="D19">
+        <v>-102.01</v>
+      </c>
+      <c r="E19">
+        <v>1170</v>
+      </c>
+      <c r="F19" s="10">
+        <v>42491</v>
+      </c>
+      <c r="G19" s="10">
+        <v>42501</v>
+      </c>
+      <c r="H19" s="10">
+        <v>42685</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0.6</v>
+      </c>
+      <c r="O19">
+        <v>0.5</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20">
+        <v>81500</v>
+      </c>
+      <c r="C20">
+        <v>35.19</v>
+      </c>
+      <c r="D20">
+        <v>-102.01</v>
+      </c>
+      <c r="E20">
+        <v>1170</v>
+      </c>
+      <c r="F20" s="10">
+        <v>41400</v>
+      </c>
+      <c r="G20" s="10">
+        <v>41416</v>
+      </c>
+      <c r="H20" s="10">
+        <v>41589</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0.6</v>
+      </c>
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>87500</v>
+      </c>
+      <c r="C21">
+        <v>35.19</v>
+      </c>
+      <c r="D21">
+        <v>-102.01</v>
+      </c>
+      <c r="E21">
+        <v>1170</v>
+      </c>
+      <c r="F21" s="10">
+        <v>42491</v>
+      </c>
+      <c r="G21" s="10">
+        <v>42501</v>
+      </c>
+      <c r="H21" s="10">
+        <v>42685</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>0.6</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Example input/AgmipET2/AGMIPET2Sim.xlsx
+++ b/Example input/AgmipET2/AGMIPET2Sim.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40386E60-3BF6-4CC7-8E7B-1A23ED6C9DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D919E722-2516-4BDA-AEE5-F55DD66A18D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="660" windowWidth="19320" windowHeight="7656" tabRatio="848" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1605" windowWidth="15360" windowHeight="10395" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -1463,17 +1463,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
@@ -1481,13 +1481,13 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" customWidth="1"/>
-    <col min="17" max="19" width="16.109375" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>238</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q12" t="s">
         <v>267</v>
@@ -2372,7 +2372,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -3062,13 +3062,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3116,12 +3116,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -3177,7 +3177,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
@@ -3189,7 +3189,7 @@
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -4317,7 +4317,7 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -4325,7 +4325,7 @@
     <col min="4" max="45" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>198</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>201</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>204</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>205</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>207</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>207</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>207</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -21861,7 +21861,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -22957,7 +22957,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>210</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>210</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>210</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>210</v>
       </c>
@@ -24464,7 +24464,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>210</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>210</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -24875,7 +24875,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>211</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>211</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>211</v>
       </c>
@@ -26108,7 +26108,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>212</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>212</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>212</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>212</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>212</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>212</v>
       </c>
@@ -27067,7 +27067,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>212</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -27478,7 +27478,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>213</v>
       </c>
@@ -27615,7 +27615,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>213</v>
       </c>
@@ -27752,7 +27752,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>213</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -28163,7 +28163,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>213</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>213</v>
       </c>
@@ -28574,7 +28574,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>214</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>214</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>214</v>
       </c>
@@ -28985,7 +28985,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>214</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>214</v>
       </c>
@@ -29259,7 +29259,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>214</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -29533,7 +29533,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>214</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -29944,7 +29944,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>215</v>
       </c>
@@ -30081,7 +30081,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>215</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>215</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>215</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -31040,7 +31040,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -31588,7 +31588,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -31725,7 +31725,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -31999,7 +31999,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -32136,7 +32136,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -32273,7 +32273,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -32547,7 +32547,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -32684,7 +32684,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -32821,7 +32821,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -32958,7 +32958,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -33232,7 +33232,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -33369,7 +33369,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -33521,7 +33521,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
@@ -33529,7 +33529,7 @@
     <col min="11" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -33567,7 +33567,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -33643,7 +33643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -33681,7 +33681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -33719,7 +33719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -33757,7 +33757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -33833,7 +33833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -33871,7 +33871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -33909,7 +33909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -33947,7 +33947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -34023,7 +34023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -34061,7 +34061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -34213,7 +34213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -34289,7 +34289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -34342,23 +34342,23 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="8" width="16.5546875" customWidth="1"/>
-    <col min="12" max="13" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="8" width="16.5703125" customWidth="1"/>
+    <col min="12" max="13" width="8.140625" customWidth="1"/>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="22" width="9.109375" style="12"/>
-    <col min="25" max="25" width="11.109375" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="17" max="22" width="9.140625" style="12"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34450,7 +34450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -34540,7 +34540,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>192</v>
       </c>
@@ -34720,7 +34720,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -34810,7 +34810,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -34990,7 +34990,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -35080,7 +35080,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -35183,20 +35183,20 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -35213,7 +35213,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -35230,7 +35230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -35247,7 +35247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -35264,7 +35264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -35298,7 +35298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -35333,24 +35333,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="14.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
@@ -35388,7 +35388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>239</v>
       </c>
@@ -35440,9 +35440,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35489,7 +35492,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -35550,12 +35553,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35584,7 +35587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -35627,16 +35630,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -35707,7 +35710,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>181</v>
       </c>
@@ -35778,7 +35781,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>182</v>
       </c>
@@ -35850,7 +35853,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -35861,7 +35864,7 @@
       </c>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
@@ -35883,17 +35886,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35931,7 +35934,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -35957,7 +35960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -35983,7 +35986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -36009,7 +36012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -36035,7 +36038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -36061,7 +36064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -36087,7 +36090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -36113,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -36139,7 +36142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -36165,7 +36168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -36191,7 +36194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -36217,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -36243,7 +36246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -36269,7 +36272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -36295,7 +36298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -36321,7 +36324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -36347,7 +36350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -36373,7 +36376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -36399,7 +36402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -36425,7 +36428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -36451,7 +36454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -36477,7 +36480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -36503,7 +36506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -36529,7 +36532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -36555,7 +36558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -36581,7 +36584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -36607,7 +36610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -36633,7 +36636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -36659,7 +36662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -36685,7 +36688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -36711,7 +36714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -36737,7 +36740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -36763,7 +36766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -36789,7 +36792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -36815,7 +36818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -36841,7 +36844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -36867,7 +36870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -36893,7 +36896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -36919,7 +36922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -36945,7 +36948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -36971,7 +36974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -36997,7 +37000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -37023,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -37049,7 +37052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -37075,7 +37078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -37101,7 +37104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -37127,7 +37130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -37153,7 +37156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -37194,12 +37197,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -37213,7 +37216,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -37241,7 +37244,7 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
@@ -37250,7 +37253,7 @@
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -37285,7 +37288,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -37320,7 +37323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -37355,7 +37358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -37390,7 +37393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -37425,7 +37428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -37460,7 +37463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -37495,7 +37498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -37530,7 +37533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -37565,7 +37568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -37600,7 +37603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -37635,7 +37638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -37670,7 +37673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -37705,7 +37708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -37740,7 +37743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -37775,7 +37778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -37810,7 +37813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -37845,7 +37848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -37880,7 +37883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -37915,7 +37918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -37950,7 +37953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -37998,14 +38001,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -38016,7 +38019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -38027,7 +38030,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -38038,7 +38041,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -38049,7 +38052,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -38060,7 +38063,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -38071,7 +38074,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -38082,7 +38085,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -38093,7 +38096,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -38104,7 +38107,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -38115,7 +38118,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -38126,7 +38129,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -38137,7 +38140,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -38148,7 +38151,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -38159,7 +38162,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -38170,7 +38173,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -38181,7 +38184,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -38192,7 +38195,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -38203,7 +38206,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -38214,7 +38217,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -38225,7 +38228,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -38236,7 +38239,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -38247,7 +38250,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -38258,7 +38261,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -38269,7 +38272,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -38280,7 +38283,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -38291,7 +38294,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -38302,7 +38305,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -38313,7 +38316,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -38324,7 +38327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -38335,7 +38338,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -38346,7 +38349,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -38357,7 +38360,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -38368,7 +38371,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -38379,7 +38382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -38390,7 +38393,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -38401,7 +38404,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -38412,7 +38415,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -38423,7 +38426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -38434,7 +38437,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -38445,7 +38448,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -38456,7 +38459,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -38467,7 +38470,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -38478,7 +38481,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -38489,7 +38492,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -38500,7 +38503,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -38511,7 +38514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -38522,7 +38525,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -38533,7 +38536,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -38544,7 +38547,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -38555,7 +38558,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -38566,7 +38569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -38577,7 +38580,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -38588,7 +38591,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -38599,7 +38602,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -38610,7 +38613,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -38621,7 +38624,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -38632,7 +38635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -38643,7 +38646,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -38654,7 +38657,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -38665,7 +38668,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>164</v>
       </c>
@@ -38676,7 +38679,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -38687,7 +38690,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -38698,7 +38701,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -38709,7 +38712,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -38720,7 +38723,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -38731,7 +38734,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -38742,7 +38745,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -38753,7 +38756,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -38764,7 +38767,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -38775,7 +38778,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -38786,7 +38789,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -38797,7 +38800,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -38808,7 +38811,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -38819,7 +38822,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -38830,7 +38833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -38841,7 +38844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -38852,7 +38855,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -38863,7 +38866,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -38874,7 +38877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -38885,7 +38888,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -38896,7 +38899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -38907,7 +38910,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -38918,7 +38921,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -38929,7 +38932,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -38940,7 +38943,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -38951,7 +38954,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -38962,7 +38965,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -38973,7 +38976,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>166</v>
       </c>
@@ -38984,7 +38987,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -38995,7 +38998,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -39006,7 +39009,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -39017,7 +39020,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -39028,7 +39031,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -39039,7 +39042,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -39050,7 +39053,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -39061,7 +39064,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -39072,7 +39075,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>166</v>
       </c>
@@ -39083,7 +39086,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -39094,7 +39097,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -39105,7 +39108,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -39116,7 +39119,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -39127,7 +39130,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>166</v>
       </c>
@@ -39138,7 +39141,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -39149,7 +39152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -39160,7 +39163,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -39171,7 +39174,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -39182,7 +39185,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>166</v>
       </c>
@@ -39193,7 +39196,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>166</v>
       </c>
@@ -39204,7 +39207,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>166</v>
       </c>
@@ -39215,7 +39218,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -39226,7 +39229,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -39237,7 +39240,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -39248,7 +39251,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -39259,7 +39262,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -39270,7 +39273,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>166</v>
       </c>
@@ -39281,7 +39284,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -39292,7 +39295,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -39303,7 +39306,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>166</v>
       </c>
@@ -39314,7 +39317,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>166</v>
       </c>
@@ -39325,7 +39328,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -39336,7 +39339,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>166</v>
       </c>
@@ -39347,7 +39350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>166</v>
       </c>
@@ -39358,7 +39361,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>166</v>
       </c>
@@ -39369,7 +39372,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>166</v>
       </c>
@@ -39380,7 +39383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>166</v>
       </c>
@@ -39391,7 +39394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -39402,7 +39405,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>166</v>
       </c>
@@ -39413,7 +39416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>167</v>
       </c>
@@ -39424,7 +39427,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -39435,7 +39438,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -39446,7 +39449,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -39457,7 +39460,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -39468,7 +39471,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -39479,7 +39482,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -39490,7 +39493,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -39501,7 +39504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -39512,7 +39515,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -39523,7 +39526,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -39534,7 +39537,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -39545,7 +39548,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -39556,7 +39559,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -39567,7 +39570,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -39578,7 +39581,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -39589,7 +39592,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -39600,7 +39603,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -39611,7 +39614,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -39622,7 +39625,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -39633,7 +39636,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -39644,7 +39647,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -39655,7 +39658,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -39666,7 +39669,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -39677,7 +39680,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -39688,7 +39691,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -39699,7 +39702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -39710,7 +39713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -39721,7 +39724,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -39732,7 +39735,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -39743,7 +39746,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -39754,7 +39757,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -39765,7 +39768,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -39776,7 +39779,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -39787,7 +39790,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -39798,7 +39801,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -39809,7 +39812,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -39820,7 +39823,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -39831,7 +39834,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -39842,7 +39845,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -39853,7 +39856,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -39864,7 +39867,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -39875,7 +39878,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -39886,7 +39889,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -39897,7 +39900,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -39908,7 +39911,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -39919,7 +39922,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>168</v>
       </c>
@@ -39930,7 +39933,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>168</v>
       </c>
@@ -39941,7 +39944,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>168</v>
       </c>
@@ -39952,7 +39955,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>168</v>
       </c>
@@ -39963,7 +39966,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>168</v>
       </c>
@@ -39974,7 +39977,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -39985,7 +39988,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>168</v>
       </c>
@@ -39996,7 +39999,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>168</v>
       </c>
@@ -40007,7 +40010,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -40018,7 +40021,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -40029,7 +40032,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -40040,7 +40043,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>168</v>
       </c>
@@ -40051,7 +40054,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -40062,7 +40065,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>168</v>
       </c>
@@ -40073,7 +40076,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>168</v>
       </c>
@@ -40084,7 +40087,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>168</v>
       </c>
@@ -40095,7 +40098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>168</v>
       </c>
@@ -40106,7 +40109,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>169</v>
       </c>
@@ -40117,7 +40120,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>169</v>
       </c>
@@ -40128,7 +40131,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>169</v>
       </c>
@@ -40139,7 +40142,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>169</v>
       </c>
@@ -40150,7 +40153,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>169</v>
       </c>
@@ -40161,7 +40164,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>169</v>
       </c>
@@ -40172,7 +40175,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -40183,7 +40186,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>169</v>
       </c>
@@ -40194,7 +40197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>169</v>
       </c>
@@ -40205,7 +40208,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>169</v>
       </c>
@@ -40216,7 +40219,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
@@ -40227,7 +40230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>169</v>
       </c>
@@ -40238,7 +40241,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>169</v>
       </c>
@@ -40249,7 +40252,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>169</v>
       </c>
@@ -40260,7 +40263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>169</v>
       </c>
@@ -40271,7 +40274,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>169</v>
       </c>
@@ -40282,7 +40285,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>169</v>
       </c>
@@ -40293,7 +40296,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>169</v>
       </c>
@@ -40304,7 +40307,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>169</v>
       </c>
@@ -40315,7 +40318,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>169</v>
       </c>
@@ -40326,7 +40329,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>169</v>
       </c>
@@ -40352,15 +40355,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -40383,259 +40386,259 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="18"/>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="18"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="18"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="I65" s="16"/>
     </row>
@@ -40653,9 +40656,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>

--- a/Example input/AgmipET2/AGMIPET2Sim.xlsx
+++ b/Example input/AgmipET2/AGMIPET2Sim.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0CB5F-267F-43B4-86E3-3E0CD66EBA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF0CAE6-F7ED-4EA2-BE90-B4CC818BBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="2484" windowWidth="10068" windowHeight="6348" tabRatio="848" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="15336" windowHeight="8208" tabRatio="848" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -1460,16 +1460,16 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="15.1171875" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.703125" customWidth="1"/>
+    <col min="6" max="6" width="21.69140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
@@ -1477,13 +1477,13 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="21.29296875" customWidth="1"/>
-    <col min="16" max="16" width="16.29296875" customWidth="1"/>
-    <col min="17" max="19" width="16.1171875" customWidth="1"/>
-    <col min="20" max="20" width="15.87890625" customWidth="1"/>
+    <col min="15" max="15" width="21.3046875" customWidth="1"/>
+    <col min="16" max="16" width="16.3046875" customWidth="1"/>
+    <col min="17" max="19" width="16.07421875" customWidth="1"/>
+    <col min="20" max="20" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -3058,13 +3058,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5859375" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" customWidth="1"/>
+    <col min="5" max="5" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3112,12 +3112,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5859375" customWidth="1"/>
+    <col min="1" max="1" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -3169,11 +3169,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
@@ -3184,7 +3184,7 @@
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -4308,11 +4308,11 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AS213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P213"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -4320,7 +4320,7 @@
     <col min="4" max="45" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>198</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>199</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>201</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>204</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>205</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>207</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>207</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>207</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -21993,7 +21993,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -23637,7 +23637,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>210</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>210</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>210</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>210</v>
       </c>
@@ -24459,7 +24459,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>210</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>210</v>
       </c>
@@ -24733,7 +24733,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>211</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>211</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>211</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>212</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>212</v>
       </c>
@@ -26377,7 +26377,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -26514,7 +26514,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>212</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>212</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>212</v>
       </c>
@@ -26925,7 +26925,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>212</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>212</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>213</v>
       </c>
@@ -27610,7 +27610,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>213</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -27884,7 +27884,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>213</v>
       </c>
@@ -28021,7 +28021,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>213</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>213</v>
       </c>
@@ -28569,7 +28569,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>214</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>214</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>214</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>214</v>
       </c>
@@ -29117,7 +29117,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>214</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>214</v>
       </c>
@@ -29391,7 +29391,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -29528,7 +29528,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>214</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -29939,7 +29939,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>215</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -30213,7 +30213,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>215</v>
       </c>
@@ -30350,7 +30350,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>215</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>215</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -30898,7 +30898,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -31035,7 +31035,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -31172,7 +31172,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -31309,7 +31309,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -31446,7 +31446,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -31583,7 +31583,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -31720,7 +31720,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -31857,7 +31857,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -32405,7 +32405,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -32679,7 +32679,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -32816,7 +32816,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -32953,7 +32953,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -33090,7 +33090,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -33227,7 +33227,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -33364,7 +33364,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -33513,10 +33513,10 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L1" sqref="L1:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
@@ -33524,7 +33524,7 @@
     <col min="11" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -33600,7 +33600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -33638,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -33714,7 +33714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -33790,7 +33790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -33866,7 +33866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -33904,7 +33904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -33942,7 +33942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -33980,7 +33980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -34018,7 +34018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -34056,7 +34056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -34094,7 +34094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -34132,7 +34132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -34170,7 +34170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -34208,7 +34208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -34246,7 +34246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -34284,7 +34284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -34337,23 +34337,23 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.29296875" customWidth="1"/>
-    <col min="2" max="2" width="14.29296875" customWidth="1"/>
-    <col min="3" max="3" width="18.5859375" customWidth="1"/>
+    <col min="1" max="1" width="15.3046875" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.703125" customWidth="1"/>
-    <col min="6" max="8" width="16.5859375" customWidth="1"/>
-    <col min="12" max="13" width="8.1171875" customWidth="1"/>
+    <col min="5" max="5" width="14.69140625" customWidth="1"/>
+    <col min="6" max="8" width="16.61328125" customWidth="1"/>
+    <col min="12" max="13" width="8.07421875" customWidth="1"/>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="22" width="9.1171875"/>
-    <col min="25" max="25" width="11.1171875" customWidth="1"/>
-    <col min="26" max="26" width="10.1171875" customWidth="1"/>
-    <col min="27" max="27" width="10.29296875" customWidth="1"/>
+    <col min="17" max="22" width="9.07421875"/>
+    <col min="25" max="25" width="11.07421875" customWidth="1"/>
+    <col min="26" max="26" width="10.07421875" customWidth="1"/>
+    <col min="27" max="27" width="10.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -34535,7 +34535,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -34625,7 +34625,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -34715,7 +34715,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -34805,7 +34805,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -35075,7 +35075,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -35179,19 +35179,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18.29296875" customWidth="1"/>
-    <col min="3" max="3" width="23.1171875" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" customWidth="1"/>
+    <col min="3" max="3" width="23.07421875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -35242,7 +35242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -35259,7 +35259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -35276,7 +35276,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -35293,7 +35293,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -35328,24 +35328,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.87890625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.29296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.87890625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1171875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.29296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5859375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1171875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1171875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.41015625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5859375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5859375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.87890625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.87890625" style="17"/>
+    <col min="1" max="1" width="14.84375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.07421875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.61328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3828125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.61328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.61328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.84375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.84375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -35383,7 +35383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>239</v>
       </c>
@@ -35435,12 +35435,12 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.1171875" customWidth="1"/>
+    <col min="1" max="1" width="17.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35487,7 +35487,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -35548,12 +35548,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.1171875" customWidth="1"/>
+    <col min="1" max="1" width="14.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35582,7 +35582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -35621,20 +35621,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="16.87890625" customWidth="1"/>
-    <col min="7" max="7" width="11.87890625" customWidth="1"/>
-    <col min="8" max="8" width="13.1171875" customWidth="1"/>
-    <col min="19" max="19" width="11.5859375" customWidth="1"/>
-    <col min="23" max="23" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.84375" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" customWidth="1"/>
+    <col min="8" max="8" width="13.07421875" customWidth="1"/>
+    <col min="19" max="19" width="11.61328125" customWidth="1"/>
+    <col min="23" max="23" width="10.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -35705,7 +35705,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -35776,7 +35776,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -35848,7 +35848,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:23" ht="18.45" x14ac:dyDescent="0.5">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="L4" s="4"/>
@@ -35857,7 +35857,7 @@
       </c>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
@@ -35876,20 +35876,20 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.29296875" customWidth="1"/>
-    <col min="10" max="10" width="12.703125" customWidth="1"/>
-    <col min="11" max="11" width="15.87890625" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" customWidth="1"/>
+    <col min="11" max="11" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35927,7 +35927,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -35979,7 +35979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -36005,7 +36005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -36057,7 +36057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -36083,7 +36083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -36135,7 +36135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -36213,7 +36213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -36239,7 +36239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -36317,7 +36317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -36395,7 +36395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -36421,7 +36421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -36447,7 +36447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -36473,7 +36473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -36525,7 +36525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -36551,7 +36551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -36603,7 +36603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -36629,7 +36629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -36707,7 +36707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -36733,7 +36733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -36785,7 +36785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -36811,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -36863,7 +36863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -36889,7 +36889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -36915,7 +36915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -36941,7 +36941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -37019,7 +37019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -37097,7 +37097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -37149,7 +37149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -37190,12 +37190,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="22.87890625" customWidth="1"/>
+    <col min="3" max="3" width="22.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -37233,11 +37233,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
@@ -37246,7 +37246,7 @@
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -37281,7 +37281,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -37316,7 +37316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -37456,7 +37456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -37561,7 +37561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -37596,7 +37596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -37666,7 +37666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -37736,7 +37736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -37806,7 +37806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -37841,7 +37841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -37911,7 +37911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -37946,7 +37946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -37994,14 +37994,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -38012,7 +38012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -38023,7 +38023,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -38034,7 +38034,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -38045,7 +38045,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -38056,7 +38056,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -38067,7 +38067,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -38089,7 +38089,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -38111,7 +38111,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -38122,7 +38122,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -38133,7 +38133,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -38144,7 +38144,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -38155,7 +38155,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -38166,7 +38166,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -38177,7 +38177,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -38188,7 +38188,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -38199,7 +38199,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -38210,7 +38210,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -38221,7 +38221,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -38232,7 +38232,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -38254,7 +38254,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -38265,7 +38265,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -38276,7 +38276,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -38309,7 +38309,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -38320,7 +38320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -38331,7 +38331,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -38342,7 +38342,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -38353,7 +38353,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -38364,7 +38364,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -38375,7 +38375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -38386,7 +38386,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -38397,7 +38397,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -38408,7 +38408,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -38419,7 +38419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -38430,7 +38430,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -38441,7 +38441,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -38452,7 +38452,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -38474,7 +38474,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -38485,7 +38485,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -38496,7 +38496,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -38507,7 +38507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -38518,7 +38518,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -38529,7 +38529,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -38551,7 +38551,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -38562,7 +38562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -38573,7 +38573,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -38584,7 +38584,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -38595,7 +38595,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -38606,7 +38606,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -38617,7 +38617,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -38628,7 +38628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -38639,7 +38639,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -38650,7 +38650,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -38661,7 +38661,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>164</v>
       </c>
@@ -38672,7 +38672,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -38683,7 +38683,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -38694,7 +38694,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -38705,7 +38705,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -38716,7 +38716,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -38727,7 +38727,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -38738,7 +38738,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -38749,7 +38749,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -38760,7 +38760,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -38771,7 +38771,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -38782,7 +38782,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -38804,7 +38804,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -38815,7 +38815,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -38826,7 +38826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -38848,7 +38848,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -38859,7 +38859,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -38870,7 +38870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -38881,7 +38881,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -38892,7 +38892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -38903,7 +38903,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -38914,7 +38914,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -38925,7 +38925,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -38936,7 +38936,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -38947,7 +38947,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -38958,7 +38958,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -38969,7 +38969,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>166</v>
       </c>
@@ -38980,7 +38980,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -38991,7 +38991,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -39002,7 +39002,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -39013,7 +39013,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -39024,7 +39024,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -39035,7 +39035,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -39046,7 +39046,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>166</v>
       </c>
@@ -39079,7 +39079,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -39090,7 +39090,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -39101,7 +39101,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -39112,7 +39112,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -39123,7 +39123,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>166</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -39145,7 +39145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -39156,7 +39156,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -39167,7 +39167,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -39178,7 +39178,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>166</v>
       </c>
@@ -39189,7 +39189,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>166</v>
       </c>
@@ -39200,7 +39200,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>166</v>
       </c>
@@ -39211,7 +39211,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -39222,7 +39222,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -39233,7 +39233,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -39244,7 +39244,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -39255,7 +39255,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -39266,7 +39266,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>166</v>
       </c>
@@ -39277,7 +39277,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -39288,7 +39288,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -39299,7 +39299,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>166</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>166</v>
       </c>
@@ -39321,7 +39321,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -39332,7 +39332,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>166</v>
       </c>
@@ -39343,7 +39343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>166</v>
       </c>
@@ -39354,7 +39354,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>166</v>
       </c>
@@ -39365,7 +39365,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>166</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>166</v>
       </c>
@@ -39387,7 +39387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -39398,7 +39398,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>166</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>167</v>
       </c>
@@ -39420,7 +39420,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -39431,7 +39431,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -39442,7 +39442,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -39464,7 +39464,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -39475,7 +39475,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -39486,7 +39486,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -39497,7 +39497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -39508,7 +39508,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -39519,7 +39519,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -39530,7 +39530,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -39541,7 +39541,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -39552,7 +39552,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -39563,7 +39563,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -39574,7 +39574,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -39585,7 +39585,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -39596,7 +39596,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -39607,7 +39607,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -39618,7 +39618,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -39629,7 +39629,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -39651,7 +39651,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -39662,7 +39662,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -39673,7 +39673,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -39684,7 +39684,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -39706,7 +39706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -39717,7 +39717,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -39728,7 +39728,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -39739,7 +39739,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -39750,7 +39750,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -39783,7 +39783,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -39805,7 +39805,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -39827,7 +39827,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -39838,7 +39838,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -39860,7 +39860,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -39871,7 +39871,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -39882,7 +39882,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -39904,7 +39904,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -39915,7 +39915,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>168</v>
       </c>
@@ -39926,7 +39926,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>168</v>
       </c>
@@ -39937,7 +39937,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>168</v>
       </c>
@@ -39948,7 +39948,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>168</v>
       </c>
@@ -39959,7 +39959,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>168</v>
       </c>
@@ -39970,7 +39970,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>168</v>
       </c>
@@ -39992,7 +39992,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>168</v>
       </c>
@@ -40003,7 +40003,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -40014,7 +40014,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -40025,7 +40025,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -40036,7 +40036,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>168</v>
       </c>
@@ -40047,7 +40047,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -40058,7 +40058,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>168</v>
       </c>
@@ -40069,7 +40069,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>168</v>
       </c>
@@ -40080,7 +40080,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>168</v>
       </c>
@@ -40091,7 +40091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>168</v>
       </c>
@@ -40102,7 +40102,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>169</v>
       </c>
@@ -40113,7 +40113,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>169</v>
       </c>
@@ -40124,7 +40124,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>169</v>
       </c>
@@ -40135,7 +40135,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>169</v>
       </c>
@@ -40146,7 +40146,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>169</v>
       </c>
@@ -40157,7 +40157,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>169</v>
       </c>
@@ -40168,7 +40168,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -40179,7 +40179,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>169</v>
       </c>
@@ -40190,7 +40190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>169</v>
       </c>
@@ -40201,7 +40201,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>169</v>
       </c>
@@ -40212,7 +40212,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>169</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>169</v>
       </c>
@@ -40234,7 +40234,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>169</v>
       </c>
@@ -40245,7 +40245,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>169</v>
       </c>
@@ -40256,7 +40256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>169</v>
       </c>
@@ -40267,7 +40267,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>169</v>
       </c>
@@ -40278,7 +40278,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>169</v>
       </c>
@@ -40289,7 +40289,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>169</v>
       </c>
@@ -40300,7 +40300,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>169</v>
       </c>
@@ -40311,7 +40311,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>169</v>
       </c>
@@ -40322,7 +40322,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>169</v>
       </c>
@@ -40348,15 +40348,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5859375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.29296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3046875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.07421875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -40379,259 +40379,259 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="14"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="14"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="14"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="14"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="14"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="14"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="14"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="14"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="14"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="14"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="14"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="14"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="14"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="14"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="14"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="14"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="14"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="14"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="14"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="14"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="14"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="14"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="14"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="14"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="14"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="14"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="14"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="14"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="14"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="14"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="14"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="14"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="14"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="14"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="14"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="14"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="14"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="14"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="14"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="14"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="14"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="14"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="14"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="14"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="14"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="14"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="14"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="14"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="14"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="14"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="14"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58" s="14"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59" s="14"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" s="14"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="14"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="14"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="14"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="14"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="14"/>
       <c r="I65" s="12"/>
     </row>
@@ -40649,9 +40649,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -40662,210 +40662,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c68283fca48dae9b1add248de89d15c2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" xmlns:ns3="73fb875a-8af9-4255-b008-0995492d31cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40d2b883f32ec076906f2da59f0ebb5f" ns2:_="" ns3:_="">
-    <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
-    <xsd:import namespace="73fb875a-8af9-4255-b008-0995492d31cd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8ff62593-b918-4deb-ac08-0d74ac0cc7e6" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="73fb875a-8af9-4255-b008-0995492d31cd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{77211ec7-9289-48e1-8a25-db087204c2aa}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="442dd8d0-93bc-4a15-a2cd-49423a906912">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA73D10-6EB9-46B2-AEC6-EC67F487A9BC}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}"/>
 </file>
--- a/Example input/AgmipET2/AGMIPET2Sim.xlsx
+++ b/Example input/AgmipET2/AGMIPET2Sim.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF0CAE6-F7ED-4EA2-BE90-B4CC818BBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF34F65C-41D9-407F-804D-DC92EA79F121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="15336" windowHeight="8208" tabRatio="848" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25428" yWindow="3432" windowWidth="17280" windowHeight="9072" tabRatio="848" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Weather" sheetId="7" r:id="rId16"/>
     <sheet name="MulchDecomp" sheetId="19" r:id="rId17"/>
     <sheet name="MulchGeo" sheetId="20" r:id="rId18"/>
+    <sheet name="Irrig (2)" sheetId="23" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="Description">Description!$A$1:$T$11</definedName>
@@ -33,8 +34,10 @@
     <definedName name="GridRatio">GridRatio!$A$1:$J$21</definedName>
     <definedName name="GridX">#REF!</definedName>
     <definedName name="Init">Init!$A$1:$Q$21</definedName>
+    <definedName name="Irrig" localSheetId="18">'Irrig (2)'!$A$1:$C$212</definedName>
     <definedName name="Irrig">Irrig!$A$1:$C$212</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="10" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="18" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="301">
   <si>
     <t>Date</t>
   </si>
@@ -958,6 +961,9 @@
   <si>
     <t>agmipet2weather.csv</t>
   </si>
+  <si>
+    <t>amount (mm/day)</t>
+  </si>
 </sst>
 </file>
 
@@ -1136,9 +1142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1176,9 +1182,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1211,26 +1217,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,26 +1252,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1459,17 +1431,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="15.07421875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.69140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
@@ -1477,13 +1449,13 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="21.3046875" customWidth="1"/>
-    <col min="16" max="16" width="16.3046875" customWidth="1"/>
-    <col min="17" max="19" width="16.07421875" customWidth="1"/>
-    <col min="20" max="20" width="15.84375" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="19" width="16.109375" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1526,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1628,7 +1600,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1702,7 +1674,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1776,7 +1748,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -1850,7 +1822,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1924,7 +1896,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1998,7 +1970,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2072,7 +2044,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2146,7 +2118,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -2220,7 +2192,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2294,7 +2266,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2368,7 +2340,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2442,7 +2414,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2517,7 +2489,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2592,7 +2564,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2667,7 +2639,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -2742,7 +2714,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -2817,7 +2789,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -2892,7 +2864,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2967,7 +2939,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -3058,13 +3030,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" customWidth="1"/>
-    <col min="5" max="5" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3112,12 +3084,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3131,7 +3103,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -3145,7 +3117,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -3173,7 +3145,7 @@
       <selection activeCell="H1" sqref="H1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
@@ -3184,7 +3156,7 @@
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3209,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -3290,7 +3262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -3343,7 +3315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3396,7 +3368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -3449,7 +3421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -3502,7 +3474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -3555,7 +3527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -3608,7 +3580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -3661,7 +3633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -3714,7 +3686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -3767,7 +3739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -3820,7 +3792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -3873,7 +3845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -3926,7 +3898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -3979,7 +3951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -4032,7 +4004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -4085,7 +4057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4138,7 +4110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -4191,7 +4163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -4244,7 +4216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -4312,7 +4284,7 @@
       <selection activeCell="O1" sqref="O1:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -4320,7 +4292,7 @@
     <col min="4" max="45" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -4457,7 +4429,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -4594,7 +4566,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -4731,7 +4703,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -4868,7 +4840,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5005,7 +4977,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>198</v>
       </c>
@@ -5142,7 +5114,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -5279,7 +5251,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -5416,7 +5388,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -5553,7 +5525,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -5690,7 +5662,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -5827,7 +5799,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -5964,7 +5936,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -6101,7 +6073,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -6238,7 +6210,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -6375,7 +6347,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -6512,7 +6484,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -6649,7 +6621,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -6786,7 +6758,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -6923,7 +6895,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -7060,7 +7032,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -7197,7 +7169,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -7334,7 +7306,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -7471,7 +7443,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -7608,7 +7580,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -7745,7 +7717,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>199</v>
       </c>
@@ -7882,7 +7854,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -8019,7 +7991,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -8156,7 +8128,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -8293,7 +8265,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -8430,7 +8402,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -8567,7 +8539,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -8704,7 +8676,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -8841,7 +8813,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -8978,7 +8950,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -9115,7 +9087,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -9252,7 +9224,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -9389,7 +9361,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -9526,7 +9498,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -9663,7 +9635,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -9800,7 +9772,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -9937,7 +9909,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -10074,7 +10046,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -10211,7 +10183,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -10348,7 +10320,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>201</v>
       </c>
@@ -10485,7 +10457,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -10622,7 +10594,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -10759,7 +10731,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -10896,7 +10868,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -11033,7 +11005,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -11170,7 +11142,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -11307,7 +11279,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -11444,7 +11416,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -11581,7 +11553,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -11718,7 +11690,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -11855,7 +11827,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -11992,7 +11964,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -12129,7 +12101,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -12266,7 +12238,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -12403,7 +12375,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -12540,7 +12512,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -12677,7 +12649,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -12814,7 +12786,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -12951,7 +12923,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13088,7 +13060,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -13225,7 +13197,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -13362,7 +13334,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -13499,7 +13471,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -13636,7 +13608,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -13773,7 +13745,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -13910,7 +13882,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -14047,7 +14019,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -14184,7 +14156,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -14321,7 +14293,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -14458,7 +14430,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -14595,7 +14567,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -14732,7 +14704,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -14869,7 +14841,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -15006,7 +14978,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -15143,7 +15115,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -15280,7 +15252,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -15417,7 +15389,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -15554,7 +15526,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -15691,7 +15663,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -15828,7 +15800,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>204</v>
       </c>
@@ -15965,7 +15937,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -16102,7 +16074,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -16239,7 +16211,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -16376,7 +16348,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -16513,7 +16485,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -16650,7 +16622,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -16787,7 +16759,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -16924,7 +16896,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -17061,7 +17033,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -17198,7 +17170,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -17335,7 +17307,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>205</v>
       </c>
@@ -17472,7 +17444,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -17609,7 +17581,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -17746,7 +17718,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -17883,7 +17855,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -18020,7 +17992,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -18157,7 +18129,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -18294,7 +18266,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -18431,7 +18403,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -18568,7 +18540,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -18705,7 +18677,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -18842,7 +18814,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -18979,7 +18951,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -19116,7 +19088,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -19253,7 +19225,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -19390,7 +19362,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -19527,7 +19499,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -19664,7 +19636,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -19801,7 +19773,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -19938,7 +19910,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -20075,7 +20047,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -20212,7 +20184,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -20349,7 +20321,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -20486,7 +20458,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>207</v>
       </c>
@@ -20623,7 +20595,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -20760,7 +20732,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -20897,7 +20869,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>207</v>
       </c>
@@ -21034,7 +21006,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>207</v>
       </c>
@@ -21171,7 +21143,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -21308,7 +21280,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -21445,7 +21417,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -21582,7 +21554,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -21719,7 +21691,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -21856,7 +21828,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -21993,7 +21965,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -22130,7 +22102,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -22267,7 +22239,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -22404,7 +22376,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -22541,7 +22513,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -22678,7 +22650,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -22815,7 +22787,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -22952,7 +22924,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -23089,7 +23061,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -23226,7 +23198,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -23363,7 +23335,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -23500,7 +23472,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -23637,7 +23609,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -23774,7 +23746,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -23911,7 +23883,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>210</v>
       </c>
@@ -24048,7 +24020,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>210</v>
       </c>
@@ -24185,7 +24157,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>210</v>
       </c>
@@ -24322,7 +24294,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>210</v>
       </c>
@@ -24459,7 +24431,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>210</v>
       </c>
@@ -24596,7 +24568,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>210</v>
       </c>
@@ -24733,7 +24705,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -24870,7 +24842,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -25007,7 +24979,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -25144,7 +25116,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -25281,7 +25253,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>211</v>
       </c>
@@ -25418,7 +25390,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -25555,7 +25527,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -25692,7 +25664,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -25829,7 +25801,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>211</v>
       </c>
@@ -25966,7 +25938,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>211</v>
       </c>
@@ -26103,7 +26075,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>212</v>
       </c>
@@ -26240,7 +26212,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>212</v>
       </c>
@@ -26377,7 +26349,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -26514,7 +26486,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>212</v>
       </c>
@@ -26651,7 +26623,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>212</v>
       </c>
@@ -26788,7 +26760,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>212</v>
       </c>
@@ -26925,7 +26897,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>212</v>
       </c>
@@ -27062,7 +27034,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -27199,7 +27171,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>212</v>
       </c>
@@ -27336,7 +27308,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -27473,7 +27445,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>213</v>
       </c>
@@ -27610,7 +27582,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>213</v>
       </c>
@@ -27747,7 +27719,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -27884,7 +27856,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>213</v>
       </c>
@@ -28021,7 +27993,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -28158,7 +28130,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>213</v>
       </c>
@@ -28295,7 +28267,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -28432,7 +28404,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>213</v>
       </c>
@@ -28569,7 +28541,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>214</v>
       </c>
@@ -28706,7 +28678,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>214</v>
       </c>
@@ -28843,7 +28815,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>214</v>
       </c>
@@ -28980,7 +28952,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>214</v>
       </c>
@@ -29117,7 +29089,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>214</v>
       </c>
@@ -29254,7 +29226,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>214</v>
       </c>
@@ -29391,7 +29363,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>214</v>
       </c>
@@ -29528,7 +29500,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -29665,7 +29637,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>214</v>
       </c>
@@ -29802,7 +29774,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -29939,7 +29911,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>215</v>
       </c>
@@ -30076,7 +30048,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -30213,7 +30185,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>215</v>
       </c>
@@ -30350,7 +30322,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>215</v>
       </c>
@@ -30487,7 +30459,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -30624,7 +30596,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>215</v>
       </c>
@@ -30761,7 +30733,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -30898,7 +30870,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -31035,7 +31007,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -31172,7 +31144,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -31309,7 +31281,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -31446,7 +31418,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -31583,7 +31555,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -31720,7 +31692,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -31857,7 +31829,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -31994,7 +31966,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -32131,7 +32103,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -32268,7 +32240,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -32405,7 +32377,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -32542,7 +32514,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -32679,7 +32651,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -32816,7 +32788,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -32953,7 +32925,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -33090,7 +33062,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -33227,7 +33199,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -33364,7 +33336,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -33516,7 +33488,7 @@
       <selection activeCell="L1" sqref="L1:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
@@ -33524,7 +33496,7 @@
     <col min="11" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -33562,7 +33534,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -33600,7 +33572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -33638,7 +33610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -33676,7 +33648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -33714,7 +33686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -33752,7 +33724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -33790,7 +33762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -33828,7 +33800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -33866,7 +33838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -33904,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -33942,7 +33914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -33980,7 +33952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -34018,7 +33990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -34056,7 +34028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -34094,7 +34066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -34132,7 +34104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -34170,7 +34142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -34208,7 +34180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -34246,7 +34218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -34284,7 +34256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -34337,23 +34309,23 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3046875" customWidth="1"/>
-    <col min="2" max="2" width="14.3046875" customWidth="1"/>
-    <col min="3" max="3" width="18.61328125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.69140625" customWidth="1"/>
-    <col min="6" max="8" width="16.61328125" customWidth="1"/>
-    <col min="12" max="13" width="8.07421875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="8" width="16.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.109375" customWidth="1"/>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="22" width="9.07421875"/>
-    <col min="25" max="25" width="11.07421875" customWidth="1"/>
-    <col min="26" max="26" width="10.07421875" customWidth="1"/>
-    <col min="27" max="27" width="10.3046875" customWidth="1"/>
+    <col min="17" max="22" width="9.109375"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.109375" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -34445,7 +34417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -34535,7 +34507,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -34625,7 +34597,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -34715,7 +34687,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -34805,7 +34777,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -34895,7 +34867,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -34985,7 +34957,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -35075,7 +35047,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -35182,16 +35154,16 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" customWidth="1"/>
-    <col min="3" max="3" width="23.07421875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -35208,7 +35180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -35225,7 +35197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -35242,7 +35214,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -35259,7 +35231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -35276,7 +35248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -35293,7 +35265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -35328,24 +35300,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.84375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3046875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.84375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.61328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.07421875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.07421875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3828125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.61328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.61328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.84375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.84375" style="17"/>
+    <col min="1" max="1" width="14.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -35383,7 +35355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>239</v>
       </c>
@@ -35431,16 +35403,16 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.07421875" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35487,7 +35459,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -35536,6 +35508,2360 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ACABE8-0D3C-4D5A-97B4-13F06F0BA321}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:C212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="9">
+        <v>41402</v>
+      </c>
+      <c r="C2">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="9">
+        <v>41404</v>
+      </c>
+      <c r="C3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41406</v>
+      </c>
+      <c r="C4">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="9">
+        <v>41413</v>
+      </c>
+      <c r="C5">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="9">
+        <v>41421</v>
+      </c>
+      <c r="C6">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="9">
+        <v>41432</v>
+      </c>
+      <c r="C7">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="9">
+        <v>41438</v>
+      </c>
+      <c r="C8">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="9">
+        <v>41445</v>
+      </c>
+      <c r="C9">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="9">
+        <v>41450</v>
+      </c>
+      <c r="C10">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="9">
+        <v>41452</v>
+      </c>
+      <c r="C11">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="9">
+        <v>41457</v>
+      </c>
+      <c r="C12">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="9">
+        <v>41465</v>
+      </c>
+      <c r="C13">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="9">
+        <v>41478</v>
+      </c>
+      <c r="C14">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="9">
+        <v>41485</v>
+      </c>
+      <c r="C15">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="9">
+        <v>41486</v>
+      </c>
+      <c r="C16">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="9">
+        <v>41488</v>
+      </c>
+      <c r="C17">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="9">
+        <v>41492</v>
+      </c>
+      <c r="C18">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="9">
+        <v>41494</v>
+      </c>
+      <c r="C19">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="9">
+        <v>41502</v>
+      </c>
+      <c r="C20">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="9">
+        <v>41508</v>
+      </c>
+      <c r="C21">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="9">
+        <v>41514</v>
+      </c>
+      <c r="C22">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="9">
+        <v>41521</v>
+      </c>
+      <c r="C23">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="9">
+        <v>42506</v>
+      </c>
+      <c r="C24">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="9">
+        <v>42517</v>
+      </c>
+      <c r="C25">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="9">
+        <v>42530</v>
+      </c>
+      <c r="C26">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="9">
+        <v>42537</v>
+      </c>
+      <c r="C27">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="9">
+        <v>42542</v>
+      </c>
+      <c r="C28">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="9">
+        <v>42548</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="9">
+        <v>42552</v>
+      </c>
+      <c r="C30">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="9">
+        <v>42556</v>
+      </c>
+      <c r="C31">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="9">
+        <v>42559</v>
+      </c>
+      <c r="C32">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="9">
+        <v>42563</v>
+      </c>
+      <c r="C33">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="9">
+        <v>42565</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="9">
+        <v>42569</v>
+      </c>
+      <c r="C35">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="9">
+        <v>42573</v>
+      </c>
+      <c r="C36">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="9">
+        <v>42576</v>
+      </c>
+      <c r="C37">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="9">
+        <v>42578</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="9">
+        <v>42580</v>
+      </c>
+      <c r="C39">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="9">
+        <v>42583</v>
+      </c>
+      <c r="C40">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="9">
+        <v>42593</v>
+      </c>
+      <c r="C41">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="9">
+        <v>42599</v>
+      </c>
+      <c r="C42">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="9">
+        <v>42601</v>
+      </c>
+      <c r="C43">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="9">
+        <v>41402</v>
+      </c>
+      <c r="C44">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="9">
+        <v>41404</v>
+      </c>
+      <c r="C45">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="9">
+        <v>41406</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="9">
+        <v>41413</v>
+      </c>
+      <c r="C47">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="9">
+        <v>41421</v>
+      </c>
+      <c r="C48">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="9">
+        <v>41432</v>
+      </c>
+      <c r="C49">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="9">
+        <v>41438</v>
+      </c>
+      <c r="C50">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="9">
+        <v>41445</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="9">
+        <v>41450</v>
+      </c>
+      <c r="C52">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="9">
+        <v>41452</v>
+      </c>
+      <c r="C53">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="9">
+        <v>41457</v>
+      </c>
+      <c r="C54">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="9">
+        <v>41465</v>
+      </c>
+      <c r="C55">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="9">
+        <v>41478</v>
+      </c>
+      <c r="C56">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="9">
+        <v>41485</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="9">
+        <v>41486</v>
+      </c>
+      <c r="C58">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="9">
+        <v>41488</v>
+      </c>
+      <c r="C59">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="9">
+        <v>41492</v>
+      </c>
+      <c r="C60">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="9">
+        <v>41494</v>
+      </c>
+      <c r="C61">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="9">
+        <v>41502</v>
+      </c>
+      <c r="C62">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="9">
+        <v>41508</v>
+      </c>
+      <c r="C63">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="9">
+        <v>41514</v>
+      </c>
+      <c r="C64">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="9">
+        <v>41521</v>
+      </c>
+      <c r="C65">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="9">
+        <v>42506</v>
+      </c>
+      <c r="C66">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="9">
+        <v>42517</v>
+      </c>
+      <c r="C67">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="9">
+        <v>42530</v>
+      </c>
+      <c r="C68">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="9">
+        <v>42537</v>
+      </c>
+      <c r="C69">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="9">
+        <v>42542</v>
+      </c>
+      <c r="C70">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="9">
+        <v>42548</v>
+      </c>
+      <c r="C71">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="9">
+        <v>42552</v>
+      </c>
+      <c r="C72">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="9">
+        <v>42556</v>
+      </c>
+      <c r="C73">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="9">
+        <v>42559</v>
+      </c>
+      <c r="C74">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="9">
+        <v>42563</v>
+      </c>
+      <c r="C75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="9">
+        <v>42565</v>
+      </c>
+      <c r="C76">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="9">
+        <v>42569</v>
+      </c>
+      <c r="C77">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="9">
+        <v>42573</v>
+      </c>
+      <c r="C78">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="9">
+        <v>42576</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="9">
+        <v>42578</v>
+      </c>
+      <c r="C80">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="9">
+        <v>42580</v>
+      </c>
+      <c r="C81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="9">
+        <v>42583</v>
+      </c>
+      <c r="C82">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="9">
+        <v>42593</v>
+      </c>
+      <c r="C83">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="9">
+        <v>42599</v>
+      </c>
+      <c r="C84">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="9">
+        <v>42601</v>
+      </c>
+      <c r="C85">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="9">
+        <v>41400</v>
+      </c>
+      <c r="C86">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="9">
+        <v>41401</v>
+      </c>
+      <c r="C87">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="9">
+        <v>41402</v>
+      </c>
+      <c r="C88">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="9">
+        <v>41406</v>
+      </c>
+      <c r="C89">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="9">
+        <v>41409</v>
+      </c>
+      <c r="C90">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="9">
+        <v>41410</v>
+      </c>
+      <c r="C91">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="9">
+        <v>41418</v>
+      </c>
+      <c r="C92">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="9">
+        <v>41419</v>
+      </c>
+      <c r="C93">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="9">
+        <v>41420</v>
+      </c>
+      <c r="C94">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="9">
+        <v>41421</v>
+      </c>
+      <c r="C95">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="9">
+        <v>41422</v>
+      </c>
+      <c r="C96">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="9">
+        <v>41424</v>
+      </c>
+      <c r="C97">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="9">
+        <v>41425</v>
+      </c>
+      <c r="C98">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="9">
+        <v>41426</v>
+      </c>
+      <c r="C99">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="9">
+        <v>41427</v>
+      </c>
+      <c r="C100">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="9">
+        <v>41428</v>
+      </c>
+      <c r="C101">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="9">
+        <v>41429</v>
+      </c>
+      <c r="C102">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="9">
+        <v>41430</v>
+      </c>
+      <c r="C103">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="9">
+        <v>41431</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="9">
+        <v>41450</v>
+      </c>
+      <c r="C105">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="9">
+        <v>41451</v>
+      </c>
+      <c r="C106">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="9">
+        <v>41457</v>
+      </c>
+      <c r="C107">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="9">
+        <v>41458</v>
+      </c>
+      <c r="C108">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="9">
+        <v>41463</v>
+      </c>
+      <c r="C109">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="9">
+        <v>41464</v>
+      </c>
+      <c r="C110">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="9">
+        <v>41465</v>
+      </c>
+      <c r="C111">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="9">
+        <v>41466</v>
+      </c>
+      <c r="C112">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="9">
+        <v>41470</v>
+      </c>
+      <c r="C113">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="9">
+        <v>41471</v>
+      </c>
+      <c r="C114">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="9">
+        <v>41484</v>
+      </c>
+      <c r="C115">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="9">
+        <v>41484</v>
+      </c>
+      <c r="C116">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="9">
+        <v>41487</v>
+      </c>
+      <c r="C117">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="9">
+        <v>41488</v>
+      </c>
+      <c r="C118">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" s="9">
+        <v>41492</v>
+      </c>
+      <c r="C119">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" s="9">
+        <v>41493</v>
+      </c>
+      <c r="C120">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="9">
+        <v>41494</v>
+      </c>
+      <c r="C121">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="9">
+        <v>41495</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" s="9">
+        <v>41498</v>
+      </c>
+      <c r="C123">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="9">
+        <v>41499</v>
+      </c>
+      <c r="C124">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="9">
+        <v>41509</v>
+      </c>
+      <c r="C125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" s="9">
+        <v>41510</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="9">
+        <v>41520</v>
+      </c>
+      <c r="C127">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="9">
+        <v>41521</v>
+      </c>
+      <c r="C128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="9">
+        <v>42507</v>
+      </c>
+      <c r="C129">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="9">
+        <v>42515</v>
+      </c>
+      <c r="C130">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" s="9">
+        <v>42530</v>
+      </c>
+      <c r="C131">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="9">
+        <v>42537</v>
+      </c>
+      <c r="C132">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="9">
+        <v>42543</v>
+      </c>
+      <c r="C133">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="9">
+        <v>42549</v>
+      </c>
+      <c r="C134">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="9">
+        <v>42551</v>
+      </c>
+      <c r="C135">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" s="9">
+        <v>42557</v>
+      </c>
+      <c r="C136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="9">
+        <v>42558</v>
+      </c>
+      <c r="C137">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="9">
+        <v>42562</v>
+      </c>
+      <c r="C138">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="9">
+        <v>42565</v>
+      </c>
+      <c r="C139">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="9">
+        <v>42570</v>
+      </c>
+      <c r="C140">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="9">
+        <v>42572</v>
+      </c>
+      <c r="C141">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="9">
+        <v>42573</v>
+      </c>
+      <c r="C142">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143" s="9">
+        <v>42577</v>
+      </c>
+      <c r="C143">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="9">
+        <v>42579</v>
+      </c>
+      <c r="C144">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="9">
+        <v>42581</v>
+      </c>
+      <c r="C145">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="9">
+        <v>42584</v>
+      </c>
+      <c r="C146">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="9">
+        <v>42594</v>
+      </c>
+      <c r="C147">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="9">
+        <v>42597</v>
+      </c>
+      <c r="C148">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" s="9">
+        <v>42600</v>
+      </c>
+      <c r="C149">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150" s="9">
+        <v>41401</v>
+      </c>
+      <c r="C150">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" s="9">
+        <v>41402</v>
+      </c>
+      <c r="C151">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" s="9">
+        <v>41407</v>
+      </c>
+      <c r="C152">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>168</v>
+      </c>
+      <c r="B153" s="9">
+        <v>41409</v>
+      </c>
+      <c r="C153">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" s="9">
+        <v>41410</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B155" s="9">
+        <v>41418</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="9">
+        <v>41419</v>
+      </c>
+      <c r="C156">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="9">
+        <v>41420</v>
+      </c>
+      <c r="C157">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" s="9">
+        <v>41421</v>
+      </c>
+      <c r="C158">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="9">
+        <v>41422</v>
+      </c>
+      <c r="C159">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" s="9">
+        <v>41424</v>
+      </c>
+      <c r="C160">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="9">
+        <v>41425</v>
+      </c>
+      <c r="C161">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="9">
+        <v>41426</v>
+      </c>
+      <c r="C162">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="9">
+        <v>41427</v>
+      </c>
+      <c r="C163">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="9">
+        <v>41428</v>
+      </c>
+      <c r="C164">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="9">
+        <v>41429</v>
+      </c>
+      <c r="C165">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" s="9">
+        <v>41430</v>
+      </c>
+      <c r="C166">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="9">
+        <v>41431</v>
+      </c>
+      <c r="C167">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="9">
+        <v>41450</v>
+      </c>
+      <c r="C168">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="9">
+        <v>41451</v>
+      </c>
+      <c r="C169">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="9">
+        <v>41457</v>
+      </c>
+      <c r="C170">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171" s="9">
+        <v>41458</v>
+      </c>
+      <c r="C171">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" s="9">
+        <v>41463</v>
+      </c>
+      <c r="C172">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" s="9">
+        <v>41464</v>
+      </c>
+      <c r="C173">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="9">
+        <v>41465</v>
+      </c>
+      <c r="C174">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175" s="9">
+        <v>41466</v>
+      </c>
+      <c r="C175">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176" s="9">
+        <v>41470</v>
+      </c>
+      <c r="C176">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>168</v>
+      </c>
+      <c r="B177" s="9">
+        <v>41471</v>
+      </c>
+      <c r="C177">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>168</v>
+      </c>
+      <c r="B178" s="9">
+        <v>41484</v>
+      </c>
+      <c r="C178">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>168</v>
+      </c>
+      <c r="B179" s="9">
+        <v>41485</v>
+      </c>
+      <c r="C179">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>168</v>
+      </c>
+      <c r="B180" s="9">
+        <v>41487</v>
+      </c>
+      <c r="C180">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>168</v>
+      </c>
+      <c r="B181" s="9">
+        <v>41488</v>
+      </c>
+      <c r="C181">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>168</v>
+      </c>
+      <c r="B182" s="9">
+        <v>41492</v>
+      </c>
+      <c r="C182">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>168</v>
+      </c>
+      <c r="B183" s="9">
+        <v>41493</v>
+      </c>
+      <c r="C183">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184" s="9">
+        <v>41494</v>
+      </c>
+      <c r="C184">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="9">
+        <v>41495</v>
+      </c>
+      <c r="C185">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="9">
+        <v>41498</v>
+      </c>
+      <c r="C186">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="9">
+        <v>41499</v>
+      </c>
+      <c r="C187">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188" s="9">
+        <v>41509</v>
+      </c>
+      <c r="C188">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" s="9">
+        <v>41510</v>
+      </c>
+      <c r="C189">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>168</v>
+      </c>
+      <c r="B190" s="9">
+        <v>41520</v>
+      </c>
+      <c r="C190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="9">
+        <v>41521</v>
+      </c>
+      <c r="C191">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>169</v>
+      </c>
+      <c r="B192" s="9">
+        <v>42507</v>
+      </c>
+      <c r="C192">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="9">
+        <v>42515</v>
+      </c>
+      <c r="C193">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="9">
+        <v>42530</v>
+      </c>
+      <c r="C194">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" s="9">
+        <v>42537</v>
+      </c>
+      <c r="C195">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="9">
+        <v>42543</v>
+      </c>
+      <c r="C196">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="9">
+        <v>42549</v>
+      </c>
+      <c r="C197">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>169</v>
+      </c>
+      <c r="B198" s="9">
+        <v>42551</v>
+      </c>
+      <c r="C198">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" s="9">
+        <v>42557</v>
+      </c>
+      <c r="C199">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="9">
+        <v>42558</v>
+      </c>
+      <c r="C200">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="9">
+        <v>42562</v>
+      </c>
+      <c r="C201">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="9">
+        <v>42565</v>
+      </c>
+      <c r="C202">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="9">
+        <v>42570</v>
+      </c>
+      <c r="C203">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>169</v>
+      </c>
+      <c r="B204" s="9">
+        <v>42572</v>
+      </c>
+      <c r="C204">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" s="9">
+        <v>42573</v>
+      </c>
+      <c r="C205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="9">
+        <v>42577</v>
+      </c>
+      <c r="C206">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" s="9">
+        <v>42579</v>
+      </c>
+      <c r="C207">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>169</v>
+      </c>
+      <c r="B208" s="9">
+        <v>42581</v>
+      </c>
+      <c r="C208">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209" s="9">
+        <v>42584</v>
+      </c>
+      <c r="C209">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>169</v>
+      </c>
+      <c r="B210" s="9">
+        <v>42594</v>
+      </c>
+      <c r="C210">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>169</v>
+      </c>
+      <c r="B211" s="9">
+        <v>42597</v>
+      </c>
+      <c r="C211">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>169</v>
+      </c>
+      <c r="B212" s="9">
+        <v>42600</v>
+      </c>
+      <c r="C212">
+        <v>25.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -35548,12 +37874,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.07421875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35582,7 +37908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -35625,16 +37951,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="16.84375" customWidth="1"/>
-    <col min="7" max="7" width="11.84375" customWidth="1"/>
-    <col min="8" max="8" width="13.07421875" customWidth="1"/>
-    <col min="19" max="19" width="11.61328125" customWidth="1"/>
-    <col min="23" max="23" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -35705,7 +38031,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -35776,7 +38102,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -35848,7 +38174,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="L4" s="4"/>
@@ -35857,7 +38183,7 @@
       </c>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
@@ -35879,17 +38205,17 @@
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" customWidth="1"/>
-    <col min="11" max="11" width="15.84375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -35927,7 +38253,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -35953,7 +38279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -35979,7 +38305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -36005,7 +38331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -36031,7 +38357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -36057,7 +38383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -36083,7 +38409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -36109,7 +38435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -36135,7 +38461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -36161,7 +38487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -36187,7 +38513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -36213,7 +38539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -36239,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -36265,7 +38591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -36291,7 +38617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -36317,7 +38643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -36343,7 +38669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -36369,7 +38695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -36395,7 +38721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -36421,7 +38747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -36447,7 +38773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -36473,7 +38799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -36499,7 +38825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -36525,7 +38851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -36551,7 +38877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -36577,7 +38903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -36603,7 +38929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -36629,7 +38955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -36655,7 +38981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -36681,7 +39007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -36707,7 +39033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -36733,7 +39059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -36759,7 +39085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -36785,7 +39111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -36811,7 +39137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -36837,7 +39163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -36863,7 +39189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -36889,7 +39215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -36915,7 +39241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -36941,7 +39267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -36967,7 +39293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -36993,7 +39319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -37019,7 +39345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -37045,7 +39371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -37071,7 +39397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -37097,7 +39423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -37123,7 +39449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -37149,7 +39475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -37190,12 +39516,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.84375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -37209,7 +39535,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -37233,11 +39559,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
@@ -37246,7 +39572,7 @@
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -37281,7 +39607,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -37316,7 +39642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -37351,7 +39677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -37386,7 +39712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -37421,7 +39747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -37456,7 +39782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -37491,7 +39817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -37526,7 +39852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -37561,7 +39887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -37596,7 +39922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -37631,7 +39957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -37666,7 +39992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -37701,7 +40027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -37736,7 +40062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -37771,7 +40097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -37806,7 +40132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -37841,7 +40167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -37876,7 +40202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -37911,7 +40237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -37946,7 +40272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -37992,16 +40318,18 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -38009,2329 +40337,641 @@
         <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="9">
-        <v>41402</v>
-      </c>
-      <c r="C2">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="9">
-        <v>41404</v>
-      </c>
-      <c r="C3">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="9">
-        <v>41406</v>
-      </c>
-      <c r="C4">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="9">
-        <v>41413</v>
-      </c>
-      <c r="C5">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="9">
-        <v>41421</v>
-      </c>
-      <c r="C6">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="9">
-        <v>41432</v>
-      </c>
-      <c r="C7">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="9">
-        <v>41438</v>
-      </c>
-      <c r="C8">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="9">
-        <v>41445</v>
-      </c>
-      <c r="C9">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="9">
-        <v>41450</v>
-      </c>
-      <c r="C10">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="9">
-        <v>41452</v>
-      </c>
-      <c r="C11">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="9">
-        <v>41457</v>
-      </c>
-      <c r="C12">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="9">
-        <v>41465</v>
-      </c>
-      <c r="C13">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="9">
-        <v>41478</v>
-      </c>
-      <c r="C14">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="9">
-        <v>41485</v>
-      </c>
-      <c r="C15">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="9">
-        <v>41486</v>
-      </c>
-      <c r="C16">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="9">
-        <v>41488</v>
-      </c>
-      <c r="C17">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="9">
-        <v>41492</v>
-      </c>
-      <c r="C18">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="9">
-        <v>41494</v>
-      </c>
-      <c r="C19">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="9">
-        <v>41502</v>
-      </c>
-      <c r="C20">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="9">
-        <v>41508</v>
-      </c>
-      <c r="C21">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="9">
-        <v>41514</v>
-      </c>
-      <c r="C22">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="9">
-        <v>41521</v>
-      </c>
-      <c r="C23">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="9">
-        <v>42506</v>
-      </c>
-      <c r="C24">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="9">
-        <v>42517</v>
-      </c>
-      <c r="C25">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="9">
-        <v>42530</v>
-      </c>
-      <c r="C26">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="9">
-        <v>42537</v>
-      </c>
-      <c r="C27">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="9">
-        <v>42542</v>
-      </c>
-      <c r="C28">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="9">
-        <v>42548</v>
-      </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="9">
-        <v>42552</v>
-      </c>
-      <c r="C30">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="9">
-        <v>42556</v>
-      </c>
-      <c r="C31">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="9">
-        <v>42559</v>
-      </c>
-      <c r="C32">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="9">
-        <v>42563</v>
-      </c>
-      <c r="C33">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="9">
-        <v>42565</v>
-      </c>
-      <c r="C34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="9">
-        <v>42569</v>
-      </c>
-      <c r="C35">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="9">
-        <v>42573</v>
-      </c>
-      <c r="C36">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="9">
-        <v>42576</v>
-      </c>
-      <c r="C37">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="9">
-        <v>42578</v>
-      </c>
-      <c r="C38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="9">
-        <v>42580</v>
-      </c>
-      <c r="C39">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="9">
-        <v>42583</v>
-      </c>
-      <c r="C40">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="9">
-        <v>42593</v>
-      </c>
-      <c r="C41">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="9">
-        <v>42599</v>
-      </c>
-      <c r="C42">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="9">
-        <v>42601</v>
-      </c>
-      <c r="C43">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="9">
-        <v>41402</v>
-      </c>
-      <c r="C44">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="9">
-        <v>41404</v>
-      </c>
-      <c r="C45">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="9">
-        <v>41406</v>
-      </c>
-      <c r="C46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="9">
-        <v>41413</v>
-      </c>
-      <c r="C47">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="9">
-        <v>41421</v>
-      </c>
-      <c r="C48">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" s="9">
-        <v>41432</v>
-      </c>
-      <c r="C49">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="9">
-        <v>41438</v>
-      </c>
-      <c r="C50">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="9">
-        <v>41445</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="9">
-        <v>41450</v>
-      </c>
-      <c r="C52">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" s="9">
-        <v>41452</v>
-      </c>
-      <c r="C53">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="9">
-        <v>41457</v>
-      </c>
-      <c r="C54">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="9">
-        <v>41465</v>
-      </c>
-      <c r="C55">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" s="9">
-        <v>41478</v>
-      </c>
-      <c r="C56">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="9">
-        <v>41485</v>
-      </c>
-      <c r="C57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="9">
-        <v>41486</v>
-      </c>
-      <c r="C58">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="9">
-        <v>41488</v>
-      </c>
-      <c r="C59">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="9">
-        <v>41492</v>
-      </c>
-      <c r="C60">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="9">
-        <v>41494</v>
-      </c>
-      <c r="C61">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" s="9">
-        <v>41502</v>
-      </c>
-      <c r="C62">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="9">
-        <v>41508</v>
-      </c>
-      <c r="C63">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="9">
-        <v>41514</v>
-      </c>
-      <c r="C64">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="9">
-        <v>41521</v>
-      </c>
-      <c r="C65">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" s="9">
-        <v>42506</v>
-      </c>
-      <c r="C66">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="9">
-        <v>42517</v>
-      </c>
-      <c r="C67">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="9">
-        <v>42530</v>
-      </c>
-      <c r="C68">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="9">
-        <v>42537</v>
-      </c>
-      <c r="C69">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" s="9">
-        <v>42542</v>
-      </c>
-      <c r="C70">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="9">
-        <v>42548</v>
-      </c>
-      <c r="C71">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" s="9">
-        <v>42552</v>
-      </c>
-      <c r="C72">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="9">
-        <v>42556</v>
-      </c>
-      <c r="C73">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="9">
-        <v>42559</v>
-      </c>
-      <c r="C74">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="9">
-        <v>42563</v>
-      </c>
-      <c r="C75">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="9">
-        <v>42565</v>
-      </c>
-      <c r="C76">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="9">
-        <v>42569</v>
-      </c>
-      <c r="C77">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="9">
-        <v>42573</v>
-      </c>
-      <c r="C78">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="9">
-        <v>42576</v>
-      </c>
-      <c r="C79">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="9">
-        <v>42578</v>
-      </c>
-      <c r="C80">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="9">
-        <v>42580</v>
-      </c>
-      <c r="C81">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="9">
-        <v>42583</v>
-      </c>
-      <c r="C82">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="9">
-        <v>42593</v>
-      </c>
-      <c r="C83">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="9">
-        <v>42599</v>
-      </c>
-      <c r="C84">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="9">
-        <v>42601</v>
-      </c>
-      <c r="C85">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="9">
-        <v>41400</v>
-      </c>
-      <c r="C86">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="9">
-        <v>41401</v>
-      </c>
-      <c r="C87">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="9">
-        <v>41402</v>
-      </c>
-      <c r="C88">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>166</v>
-      </c>
-      <c r="B89" s="9">
-        <v>41406</v>
-      </c>
-      <c r="C89">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="9">
-        <v>41409</v>
-      </c>
-      <c r="C90">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>166</v>
-      </c>
-      <c r="B91" s="9">
-        <v>41410</v>
-      </c>
-      <c r="C91">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="9">
-        <v>41418</v>
-      </c>
-      <c r="C92">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="9">
-        <v>41419</v>
-      </c>
-      <c r="C93">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" s="9">
-        <v>41420</v>
-      </c>
-      <c r="C94">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="9">
-        <v>41421</v>
-      </c>
-      <c r="C95">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="9">
-        <v>41422</v>
-      </c>
-      <c r="C96">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="9">
-        <v>41424</v>
-      </c>
-      <c r="C97">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="9">
-        <v>41425</v>
-      </c>
-      <c r="C98">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="9">
-        <v>41426</v>
-      </c>
-      <c r="C99">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="9">
-        <v>41427</v>
-      </c>
-      <c r="C100">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="9">
-        <v>41428</v>
-      </c>
-      <c r="C101">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" s="9">
-        <v>41429</v>
-      </c>
-      <c r="C102">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="9">
-        <v>41430</v>
-      </c>
-      <c r="C103">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104" s="9">
-        <v>41431</v>
-      </c>
-      <c r="C104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" s="9">
-        <v>41450</v>
-      </c>
-      <c r="C105">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>166</v>
-      </c>
-      <c r="B106" s="9">
-        <v>41451</v>
-      </c>
-      <c r="C106">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>166</v>
-      </c>
-      <c r="B107" s="9">
-        <v>41457</v>
-      </c>
-      <c r="C107">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>166</v>
-      </c>
-      <c r="B108" s="9">
-        <v>41458</v>
-      </c>
-      <c r="C108">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="9">
-        <v>41463</v>
-      </c>
-      <c r="C109">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>166</v>
-      </c>
-      <c r="B110" s="9">
-        <v>41464</v>
-      </c>
-      <c r="C110">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" s="9">
-        <v>41465</v>
-      </c>
-      <c r="C111">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" s="9">
-        <v>41466</v>
-      </c>
-      <c r="C112">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" s="9">
-        <v>41470</v>
-      </c>
-      <c r="C113">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>166</v>
-      </c>
-      <c r="B114" s="9">
-        <v>41471</v>
-      </c>
-      <c r="C114">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>166</v>
-      </c>
-      <c r="B115" s="9">
-        <v>41484</v>
-      </c>
-      <c r="C115">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>166</v>
-      </c>
-      <c r="B116" s="9">
-        <v>41484</v>
-      </c>
-      <c r="C116">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="9">
-        <v>41487</v>
-      </c>
-      <c r="C117">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>166</v>
-      </c>
-      <c r="B118" s="9">
-        <v>41488</v>
-      </c>
-      <c r="C118">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>166</v>
-      </c>
-      <c r="B119" s="9">
-        <v>41492</v>
-      </c>
-      <c r="C119">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>166</v>
-      </c>
-      <c r="B120" s="9">
-        <v>41493</v>
-      </c>
-      <c r="C120">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="9">
-        <v>41494</v>
-      </c>
-      <c r="C121">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>166</v>
-      </c>
-      <c r="B122" s="9">
-        <v>41495</v>
-      </c>
-      <c r="C122">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>166</v>
-      </c>
-      <c r="B123" s="9">
-        <v>41498</v>
-      </c>
-      <c r="C123">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>166</v>
-      </c>
-      <c r="B124" s="9">
-        <v>41499</v>
-      </c>
-      <c r="C124">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>166</v>
-      </c>
-      <c r="B125" s="9">
-        <v>41509</v>
-      </c>
-      <c r="C125">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>166</v>
-      </c>
-      <c r="B126" s="9">
-        <v>41510</v>
-      </c>
-      <c r="C126">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>166</v>
-      </c>
-      <c r="B127" s="9">
-        <v>41520</v>
-      </c>
-      <c r="C127">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" s="9">
-        <v>41521</v>
-      </c>
-      <c r="C128">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" s="9">
-        <v>42507</v>
-      </c>
-      <c r="C129">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" s="9">
-        <v>42515</v>
-      </c>
-      <c r="C130">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>167</v>
-      </c>
-      <c r="B131" s="9">
-        <v>42530</v>
-      </c>
-      <c r="C131">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>167</v>
-      </c>
-      <c r="B132" s="9">
-        <v>42537</v>
-      </c>
-      <c r="C132">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="9">
-        <v>42543</v>
-      </c>
-      <c r="C133">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134" s="9">
-        <v>42549</v>
-      </c>
-      <c r="C134">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="9">
-        <v>42551</v>
-      </c>
-      <c r="C135">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" s="9">
-        <v>42557</v>
-      </c>
-      <c r="C136">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="9">
-        <v>42558</v>
-      </c>
-      <c r="C137">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138" s="9">
-        <v>42562</v>
-      </c>
-      <c r="C138">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="9">
-        <v>42565</v>
-      </c>
-      <c r="C139">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>167</v>
-      </c>
-      <c r="B140" s="9">
-        <v>42570</v>
-      </c>
-      <c r="C140">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141" s="9">
-        <v>42572</v>
-      </c>
-      <c r="C141">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>167</v>
-      </c>
-      <c r="B142" s="9">
-        <v>42573</v>
-      </c>
-      <c r="C142">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>167</v>
-      </c>
-      <c r="B143" s="9">
-        <v>42577</v>
-      </c>
-      <c r="C143">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>167</v>
-      </c>
-      <c r="B144" s="9">
-        <v>42579</v>
-      </c>
-      <c r="C144">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" s="9">
-        <v>42581</v>
-      </c>
-      <c r="C145">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="9">
-        <v>42584</v>
-      </c>
-      <c r="C146">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>167</v>
-      </c>
-      <c r="B147" s="9">
-        <v>42594</v>
-      </c>
-      <c r="C147">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>167</v>
-      </c>
-      <c r="B148" s="9">
-        <v>42597</v>
-      </c>
-      <c r="C148">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>167</v>
-      </c>
-      <c r="B149" s="9">
-        <v>42600</v>
-      </c>
-      <c r="C149">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>168</v>
-      </c>
-      <c r="B150" s="9">
-        <v>41401</v>
-      </c>
-      <c r="C150">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>168</v>
-      </c>
-      <c r="B151" s="9">
-        <v>41402</v>
-      </c>
-      <c r="C151">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>168</v>
-      </c>
-      <c r="B152" s="9">
-        <v>41407</v>
-      </c>
-      <c r="C152">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>168</v>
-      </c>
-      <c r="B153" s="9">
-        <v>41409</v>
-      </c>
-      <c r="C153">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>168</v>
-      </c>
-      <c r="B154" s="9">
-        <v>41410</v>
-      </c>
-      <c r="C154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>168</v>
-      </c>
-      <c r="B155" s="9">
-        <v>41418</v>
-      </c>
-      <c r="C155">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>168</v>
-      </c>
-      <c r="B156" s="9">
-        <v>41419</v>
-      </c>
-      <c r="C156">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>168</v>
-      </c>
-      <c r="B157" s="9">
-        <v>41420</v>
-      </c>
-      <c r="C157">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B158" s="9">
-        <v>41421</v>
-      </c>
-      <c r="C158">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159" s="9">
-        <v>41422</v>
-      </c>
-      <c r="C159">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160" s="9">
-        <v>41424</v>
-      </c>
-      <c r="C160">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" s="9">
-        <v>41425</v>
-      </c>
-      <c r="C161">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>168</v>
-      </c>
-      <c r="B162" s="9">
-        <v>41426</v>
-      </c>
-      <c r="C162">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="9">
-        <v>41427</v>
-      </c>
-      <c r="C163">
-        <v>38.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" s="9">
-        <v>41428</v>
-      </c>
-      <c r="C164">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>168</v>
-      </c>
-      <c r="B165" s="9">
-        <v>41429</v>
-      </c>
-      <c r="C165">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>168</v>
-      </c>
-      <c r="B166" s="9">
-        <v>41430</v>
-      </c>
-      <c r="C166">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" s="9">
-        <v>41431</v>
-      </c>
-      <c r="C167">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" s="9">
-        <v>41450</v>
-      </c>
-      <c r="C168">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" s="9">
-        <v>41451</v>
-      </c>
-      <c r="C169">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" s="9">
-        <v>41457</v>
-      </c>
-      <c r="C170">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>168</v>
-      </c>
-      <c r="B171" s="9">
-        <v>41458</v>
-      </c>
-      <c r="C171">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>168</v>
-      </c>
-      <c r="B172" s="9">
-        <v>41463</v>
-      </c>
-      <c r="C172">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>168</v>
-      </c>
-      <c r="B173" s="9">
-        <v>41464</v>
-      </c>
-      <c r="C173">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>168</v>
-      </c>
-      <c r="B174" s="9">
-        <v>41465</v>
-      </c>
-      <c r="C174">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>168</v>
-      </c>
-      <c r="B175" s="9">
-        <v>41466</v>
-      </c>
-      <c r="C175">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>168</v>
-      </c>
-      <c r="B176" s="9">
-        <v>41470</v>
-      </c>
-      <c r="C176">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>168</v>
-      </c>
-      <c r="B177" s="9">
-        <v>41471</v>
-      </c>
-      <c r="C177">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>168</v>
-      </c>
-      <c r="B178" s="9">
-        <v>41484</v>
-      </c>
-      <c r="C178">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>168</v>
-      </c>
-      <c r="B179" s="9">
-        <v>41485</v>
-      </c>
-      <c r="C179">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>168</v>
-      </c>
-      <c r="B180" s="9">
-        <v>41487</v>
-      </c>
-      <c r="C180">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>168</v>
-      </c>
-      <c r="B181" s="9">
-        <v>41488</v>
-      </c>
-      <c r="C181">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>168</v>
-      </c>
-      <c r="B182" s="9">
-        <v>41492</v>
-      </c>
-      <c r="C182">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>168</v>
-      </c>
-      <c r="B183" s="9">
-        <v>41493</v>
-      </c>
-      <c r="C183">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>168</v>
-      </c>
-      <c r="B184" s="9">
-        <v>41494</v>
-      </c>
-      <c r="C184">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>168</v>
-      </c>
-      <c r="B185" s="9">
-        <v>41495</v>
-      </c>
-      <c r="C185">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>168</v>
-      </c>
-      <c r="B186" s="9">
-        <v>41498</v>
-      </c>
-      <c r="C186">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>168</v>
-      </c>
-      <c r="B187" s="9">
-        <v>41499</v>
-      </c>
-      <c r="C187">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>168</v>
-      </c>
-      <c r="B188" s="9">
-        <v>41509</v>
-      </c>
-      <c r="C188">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>168</v>
-      </c>
-      <c r="B189" s="9">
-        <v>41510</v>
-      </c>
-      <c r="C189">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>168</v>
-      </c>
-      <c r="B190" s="9">
-        <v>41520</v>
-      </c>
-      <c r="C190">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>168</v>
-      </c>
-      <c r="B191" s="9">
-        <v>41521</v>
-      </c>
-      <c r="C191">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>169</v>
-      </c>
-      <c r="B192" s="9">
-        <v>42507</v>
-      </c>
-      <c r="C192">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>169</v>
-      </c>
-      <c r="B193" s="9">
-        <v>42515</v>
-      </c>
-      <c r="C193">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>169</v>
-      </c>
-      <c r="B194" s="9">
-        <v>42530</v>
-      </c>
-      <c r="C194">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>169</v>
-      </c>
-      <c r="B195" s="9">
-        <v>42537</v>
-      </c>
-      <c r="C195">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
-        <v>169</v>
-      </c>
-      <c r="B196" s="9">
-        <v>42543</v>
-      </c>
-      <c r="C196">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>169</v>
-      </c>
-      <c r="B197" s="9">
-        <v>42549</v>
-      </c>
-      <c r="C197">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>169</v>
-      </c>
-      <c r="B198" s="9">
-        <v>42551</v>
-      </c>
-      <c r="C198">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
-        <v>169</v>
-      </c>
-      <c r="B199" s="9">
-        <v>42557</v>
-      </c>
-      <c r="C199">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
-        <v>169</v>
-      </c>
-      <c r="B200" s="9">
-        <v>42558</v>
-      </c>
-      <c r="C200">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
-        <v>169</v>
-      </c>
-      <c r="B201" s="9">
-        <v>42562</v>
-      </c>
-      <c r="C201">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>169</v>
-      </c>
-      <c r="B202" s="9">
-        <v>42565</v>
-      </c>
-      <c r="C202">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
-        <v>169</v>
-      </c>
-      <c r="B203" s="9">
-        <v>42570</v>
-      </c>
-      <c r="C203">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
-        <v>169</v>
-      </c>
-      <c r="B204" s="9">
-        <v>42572</v>
-      </c>
-      <c r="C204">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
-        <v>169</v>
-      </c>
-      <c r="B205" s="9">
-        <v>42573</v>
-      </c>
-      <c r="C205">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
-        <v>169</v>
-      </c>
-      <c r="B206" s="9">
-        <v>42577</v>
-      </c>
-      <c r="C206">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
-        <v>169</v>
-      </c>
-      <c r="B207" s="9">
-        <v>42579</v>
-      </c>
-      <c r="C207">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
-        <v>169</v>
-      </c>
-      <c r="B208" s="9">
-        <v>42581</v>
-      </c>
-      <c r="C208">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
-        <v>169</v>
-      </c>
-      <c r="B209" s="9">
-        <v>42584</v>
-      </c>
-      <c r="C209">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>169</v>
-      </c>
-      <c r="B210" s="9">
-        <v>42594</v>
-      </c>
-      <c r="C210">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>169</v>
-      </c>
-      <c r="B211" s="9">
-        <v>42597</v>
-      </c>
-      <c r="C211">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>169</v>
-      </c>
-      <c r="B212" s="9">
-        <v>42600</v>
-      </c>
-      <c r="C212">
-        <v>25.2</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="9"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="9"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="9"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="9"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="9"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="9"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="9"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="9"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="9"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="9"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="9"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="9"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="9"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="9"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="9"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40348,15 +40988,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3046875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.07421875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -40379,259 +41019,259 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="14"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="14"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="14"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="14"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14"/>
       <c r="I65" s="12"/>
     </row>
@@ -40649,9 +41289,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>

--- a/Example input/AgmipET2/AGMIPET2Sim.xlsx
+++ b/Example input/AgmipET2/AGMIPET2Sim.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8012406B-09AC-42EA-BADC-EA1242104278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517AD039-48EF-4106-A181-C8D34BD7EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25920" windowHeight="13425" tabRatio="848" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="2385" windowWidth="21600" windowHeight="11295" tabRatio="848" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -165,6 +165,40 @@
           </rPr>
           <t xml:space="preserve">
 hour of day 0-23</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{45E69C53-1464-4411-BF4F-118A2EAB4DAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ug/cm3 for all C and N fractions</t>
         </r>
       </text>
     </comment>
@@ -1188,7 +1222,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1282,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1352,7 +1399,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0D770FF7-E571-4A91-90A3-D60CA9D88488}"/>
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -4644,12 +4692,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AT213"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q213"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34483,6 +34531,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36522,8 +36571,8 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36584,7 +36633,7 @@
         <v>-100000</v>
       </c>
       <c r="F2" s="4">
-        <v>10000000000</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -41414,7 +41463,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K9"/>
     </sheetView>
   </sheetViews>
